--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -1325,7 +1325,12 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -1325,12 +1325,7 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3976,11 +3976,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Camry available for Katherine if needed</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4014,9 +4010,22 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Equip,
+St Mary's (Take both your pc's)- Cancer Cntr with process on lap top</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
@@ -4055,18 +4064,18 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Equip,
-St Mary's (Take both your pc's)- Cancer Cntr with process on lap top</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4107,12 +4116,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4150,15 +4159,20 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Driver,
+Equip, St Luke's (Take computer)</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
@@ -4205,19 +4219,15 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Equip, St Luke's (Take computer)</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
@@ -4256,12 +4266,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4307,15 +4317,19 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>@ Store, bring comp</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
@@ -4357,21 +4371,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store, bring comp</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Nov 26</t>
+          <t>Sun, Dec 3</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Nov 27</t>
+          <t>Mon, Dec 4</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Nov 28</t>
+          <t>Tue, Dec 5</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Nov 29</t>
+          <t>Wed, Dec 6</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Nov 30</t>
+          <t>Thu, Dec 7</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Dec 1</t>
+          <t>Fri, Dec 8</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Dec 2</t>
+          <t>Sat, Dec 9</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -650,7 +654,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -658,7 +662,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -666,7 +670,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:15 AM MEET COLLEGE (SOUTHWEST) </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -674,7 +678,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -691,13 +695,17 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -705,7 +713,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -713,7 +721,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -721,7 +729,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -738,13 +746,17 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>PIGGLY WIGGLY #342, OAK CREEK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -752,7 +764,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #887 +RX, GREENFIELD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -760,7 +772,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -768,7 +780,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #889 +RX, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -776,7 +788,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
+          <t>PICK #416, WAUWATOSA-WALNUT</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -785,13 +797,17 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #221, PALMYRA</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>2201 E RAWSON AVE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -799,7 +815,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #512, CHICAGO - 16TH &amp; CLARK</t>
+          <t>4279 S 76TH STREET</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -807,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #523 +RX, GURNEE</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -815,7 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>N77 W14435 APPLETON AVE</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -823,7 +839,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>17295 WEST CAPITOL DR</t>
+          <t>1717 N MAYFAIR RD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -832,13 +848,17 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>117 W TAFT</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/r6Lve1UzasE2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -846,7 +866,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1615 S CLARK ST</t>
+          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -854,7 +874,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>6655 GRAND AVE</t>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -862,7 +882,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2518 W WASHINGTON STREET</t>
+          <t>https://goo.gl/maps/DRPXRoV3zNE2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -870,7 +890,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
+          <t>https://goo.gl/maps/96AWc1YH6do</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -879,43 +899,39 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/VvUw29M3hE72</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zdGiJWdca4F2</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/SV1CeAGfq1s</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UGfMgfcMtR22</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -925,64 +941,97 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>STORE RESET - REMAPPED</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry, Equip</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
@@ -991,46 +1040,79 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1042,51 +1124,39 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1098,13 +1168,21 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1113,53 +1191,35 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1171,10 +1231,14 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1186,48 +1250,39 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1236,11 +1291,23 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -1250,38 +1317,34 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1295,25 +1358,24 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver, 
-Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1322,46 +1384,38 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>METRO #315 +RX, PEWAUKEE-SILVERNAIL</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1379,19 +1433,15 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -1401,51 +1451,47 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>2160 SILVERNAIL RD</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1458,7 +1504,11 @@
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #343, RACINE</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1472,55 +1522,43 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/2rT7gHkvfpqzFotG7</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1533,11 +1571,19 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5201 WASHINGTON AVE</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1547,55 +1593,35 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1608,13 +1634,17 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ZuN5FromZT42</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEAVE OFFICE 5:00 AM </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1626,56 +1656,47 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1694,7 +1715,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>LAKHBIR REFUEL PANTRY (AMOCO), HUSTISFORD (23) 5352</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1706,40 +1727,31 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1750,12 +1762,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Jake K</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1767,14 +1779,27 @@
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>499 RUBICON ST</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1786,39 +1811,35 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1829,12 +1850,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Jaliyah</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1846,14 +1867,22 @@
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>https://goo.gl/maps/v6zTqSs1ni7cirGA8</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1865,39 +1894,35 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jaliyah</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until noon</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Jaliyah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1908,12 +1933,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1925,16 +1950,20 @@
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>475 N LAKE AVE</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1944,7 +1973,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jaliyah</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1955,28 +1984,24 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -1987,35 +2012,55 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2024,7 +2069,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Grace</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2035,28 +2080,24 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2067,35 +2108,50 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2104,7 +2160,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kyle</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2115,29 +2171,28 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2146,36 +2201,40 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2184,7 +2243,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2195,12 +2254,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2211,12 +2270,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2232,46 +2291,63 @@
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Jake K</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2281,7 +2357,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2292,47 +2372,42 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Jaliyah</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Jaliyah</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2352,28 +2427,44 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
@@ -2387,13 +2478,17 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2402,23 +2497,42 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #431, FRANKLIN- 
-S LOVERS LANE RD</t>
+          <t>PICK #430 +RX, WEST BEND -MAIN ST</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2427,45 +2541,61 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO-ROCHESTER</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEAVE OFFICE 5:00 AM </t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>7780 S LOVERS LANE ROAD</t>
+          <t>1629 SOUTH MAIN STREET</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2474,45 +2604,49 @@
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #118, BROOKFIELD</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>ASCENSION IP CSMO COLUMBIA ST MARY'S HOSP OZAUKEE CAMPUS, MEQUON</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL   </t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>1060 N ROCHESTER ST</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>24)</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
+          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2521,91 +2655,99 @@
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2315 N 124TH ST</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>13111 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>25)</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/APexWLDo2Qu</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>https://goo.gl/maps/h68MdySxd6QHKPLu5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1306 HWY 175</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2615,163 +2757,160 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2 COMPUTERS NEEDED AT THIS SITE</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>25406 75TH ST</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Until 12:00</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO-(AMOCO) GREENWALD</t>
+          <t>METRO #371 +RX, MILWAUKEE</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Camry, Equip</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL      </t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>1123 N VAN BUREN STREET</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2779,203 +2918,254 @@
       <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Grace</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>5931 N 91ST ST</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver,
+Sante Fe,
+Rx</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store, bring comp</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>25555 75TH ST</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Rx (train w/ Lashaun)</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW </t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO-(BP) ARROWHEAD</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2983,33 +3173,46 @@
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>All Equip,
+Help Kim</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -3017,12 +3220,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3035,56 +3238,48 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3094,45 +3289,37 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>141 MAIN ST</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>13395 WATERTOWN PLANK RD</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3149,36 +3336,24 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3186,12 +3361,12 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3212,24 +3387,24 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3237,12 +3412,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3258,51 +3433,43 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3318,46 +3485,42 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3378,37 +3541,37 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>12345 W LAYTON AVE</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6:15 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jaliyah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3429,42 +3592,43 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3476,31 +3640,31 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL   </t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>12617 ANTIOCH RD</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3515,43 +3679,19 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>ASCENSION ALL SAINTS HOSP WI AVE CAMPUS (ST LUKE'S) INPATIENT, RACINE</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3566,43 +3706,27 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1320 WISCONSIN AVE</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3613,11 +3737,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3625,23 +3745,19 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/raiuDa4wRko</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3652,11 +3768,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3664,23 +3776,19 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>(262) 687-2011</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>SULLIVAN'S FOODS #241, LENA</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3691,39 +3799,27 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/e3AciK8fCAsjJDzo7</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>12511 ANTIOCH RD</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>201 DODDS DRIVE</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3738,31 +3834,23 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS (ST MARY'S), INPATIENT, RACINE</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Xzs9P5H29WqU4pVc8</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/82qhta5RyXsUSC2u9</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3772,38 +3860,16 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>YAHR OIL CARDINAL SERVICE MOBIL, HARTLAND</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>3801 SPRING ST</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3821,53 +3887,37 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>805 CARDINAL LANE</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3881,41 +3931,32 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aELMdyfpGL62</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>(262) 687-4011</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
         <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3929,28 +3970,32 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>APPROX 8:30/9:30 AM START</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>ENTER THROUGH SURGICAL CENTER</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3960,19 +4005,11 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3983,1007 +4020,23 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Equip,
-St Mary's (Take both your pc's)- Cancer Cntr with process on lap top</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>N6485 COUNTY RD F</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #355, RACINE</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>3900 ERIE ST</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Driver,
-Equip, St Luke's (Take computer)</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>PICK #393, DEFOREST</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/pSDNmBRxXrQ2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>621 S MAIN STREET</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/buzv8xXN62G2</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>@ Store, bring comp</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Dec 3</t>
+          <t>Sun, Dec 10</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Dec 4</t>
+          <t>Mon, Dec 11</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Dec 5</t>
+          <t>Tue, Dec 12</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Dec 6</t>
+          <t>Wed, Dec 13</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Dec 7</t>
+          <t>Thu, Dec 14</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Dec 8</t>
+          <t>Fri, Dec 15</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Dec 9</t>
+          <t>Sat, Dec 16</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,11 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -562,7 +566,11 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -589,7 +597,11 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -616,7 +628,11 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -642,7 +658,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6:15 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -654,7 +670,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:45 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -662,7 +678,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -670,7 +686,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -678,7 +694,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -686,7 +702,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -697,7 +713,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -705,7 +721,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -713,7 +729,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -721,7 +737,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -729,7 +745,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -737,7 +753,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -748,7 +764,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #220, MUSKEGO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -756,7 +772,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #342, OAK CREEK</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -764,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>METRO #887 +RX, GREENFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -772,7 +788,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -780,7 +796,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PICK #889 +RX, MENOMONEE FALLS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -788,7 +804,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #416, WAUWATOSA-WALNUT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -799,7 +815,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #221, PALMYRA</t>
+          <t>W189 S7847 RACINE AVE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -807,7 +823,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2201 E RAWSON AVE</t>
+          <t>PIGGLY WIGGLY #117, NEW HOLSTEIN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4279 S 76TH STREET</t>
+          <t>PIGGLY WIGGLY #116, SHEBOYGAN FALLS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,7 +839,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -831,7 +847,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>N77 W14435 APPLETON AVE</t>
+          <t>QUAD MED, LOMIRA</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -839,7 +855,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1717 N MAYFAIR RD</t>
+          <t>LAKHBIR REFUEL PANTRY - MILLPOND - MADISON - 5150</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -850,7 +866,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>117 W TAFT</t>
+          <t>https://goo.gl/maps/3aRXzfmExPr</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -858,7 +874,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/r6Lve1UzasE2</t>
+          <t>2243 CALUMET DR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -866,7 +882,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Dsf32VPAjE62</t>
+          <t>1166 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -874,7 +890,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -882,7 +898,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DRPXRoV3zNE2</t>
+          <t>N11896 STATE ROAD 175</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -890,7 +906,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/96AWc1YH6do</t>
+          <t>6410 MILLPOND RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -899,37 +915,45 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/VvUw29M3hE72</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/n2gTQ4PdhDR2</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/4eFLsvJCjBo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/tuUnpKTfjBdvJaoS7</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/Z5X9h2AfW65VoTkx9</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -937,61 +961,45 @@
       <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -1002,34 +1010,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Until 12:45</t>
+          <t>Driver,
+Altima
+Equip</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1045,30 +1050,24 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Altima
+Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1080,13 +1079,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
@@ -1095,27 +1093,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1124,27 +1127,27 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Until 12:45</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>OPEN PANTRY #9570, RACINE</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>QUAD MED, SUSSEX</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1156,31 +1159,44 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Until noon</t>
+          <t>@ Grafton</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1191,23 +1207,28 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2731 DURAND AVE</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>W227 N6103 SUSSEX RD</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1219,29 +1240,47 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Marty</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver, Camry,
+Grafton @ 6:00</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1250,7 +1289,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1258,19 +1297,15 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>https://goo.gl/maps/syeNugSFcfR2</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1290,25 +1325,33 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>w/ DJ</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1317,27 +1360,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1349,33 +1384,37 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Grace</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>w/ DJ</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1384,216 +1423,137 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>METRO #315 +RX, PEWAUKEE-SILVERNAIL</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2160 SILVERNAIL RD</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>QUAD MED, WEST ALLIS</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #343, RACINE</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2rT7gHkvfpqzFotG7</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>555 S 108TH ST</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>5201 WASHINGTON AVE</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1602,108 +1562,64 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/cnXzCbAxoZm</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ZuN5FromZT42</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ROCKFORD CREW WILL MEET UP AT WATERTOWN PLANK AS WELL, &amp; FOLLOW TO SITE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>6:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1715,405 +1631,256 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LAKHBIR REFUEL PANTRY (AMOCO), HUSTISFORD (23) 5352</t>
+          <t>7:45 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>450 N MARGARET ST</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>499 RUBICON ST</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/v6zTqSs1ni7cirGA8</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Until noon</t>
-        </is>
-      </c>
+          <t>DARIEN CORNER MART</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CHILDREN'S HOSPITAL OF WI, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>101 W BELOIT ST</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>9000 W WISCONSIN AVE</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>https://goo.gl/maps/ftfmvN9v8RLS5PeU8</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2125,244 +1892,176 @@
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+          <t>https://goo.gl/maps/xKN8zVikPpP2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Kyle</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>17235 W BLUEMOUND RD</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry, Equip</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM MEET OFFICE</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Alyssa R</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Angela B</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2371,53 +2070,53 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2426,328 +2125,343 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>LAKHBIR MOBIL, DEERFIELD (28) 5436</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:15 AM MEET OFFICE</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>22)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>216 S MAIN ST</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #430 +RX, WEST BEND -MAIN ST</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Russ</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Pig, work w/ Alyssa H</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>3100 S 76TH ST</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6KALK2Gp8aUEwFUU8</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>1629 SOUTH MAIN STREET</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #118, BROOKFIELD</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMO COLUMBIA ST MARY'S HOSP OZAUKEE CAMPUS, MEQUON</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver, 
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>24)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ABtzAZ2uGxT2</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2315 N 124TH ST</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13111 N PORT WASHINGTON RD</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #041, JEFFERSON</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>25)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van, Equip</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>4:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/APexWLDo2Qu</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/h68MdySxd6QHKPLu5</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>921 W RACINE ST</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Help Ian if needed</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2757,160 +2471,131 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2 COMPUTERS NEEDED AT THIS SITE</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/aktNmKJzJvm</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>METRO #371 +RX, MILWAUKEE</t>
+          <t>FEW RESETS-REMAPPRD</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1123 N VAN BUREN STREET</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>703 N ELIDA STREET</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2918,254 +2603,213 @@
       <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROCKFORD CREW WILL MEET UP AT WATERTOWN PLANK AS WELL, &amp; FOLLOW TO SITE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/P9qm8u7dxgH2</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>7:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Rx</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store, bring comp</t>
-        </is>
-      </c>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Ace, Equip</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3173,62 +2817,67 @@
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CHILDREN'S HOSPITAL OF WI EPC, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>LAKHBIR REFUEL PANTRY-WISCONSIN DELLS  (18) 5301</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>All Equip,
-Help Kim</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #168, EDGERTON</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3238,46 +2887,58 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9000 W WISCONSIN AVE</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>N390 US HWY 12</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>1211 N MAIN ST</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Groc</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3289,42 +2950,48 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/crk8HN1Gdv2jTvTt6</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Dyg76G4Q1meR6yXv9</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9YbLUf3aGUH2</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe,
+Ace Side</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3336,44 +3003,40 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NEED A SEPARATE TIMESHEET FOR EACH CHILDREN'S HOSP SITE</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3383,28 +3046,32 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lashaun/Cynthia start up at IP first, they will escort you back to EPC.  Back to IP when wrapped up</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3412,17 +3079,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Ace Side</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3437,46 +3104,54 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3485,42 +3160,59 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3536,42 +3228,59 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3595,40 +3304,39 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -3647,29 +3355,43 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
         <is>
           <t>12)</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store
+Bring Box + TS Laptop,
+Help Kim</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3690,13 +3412,37 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3717,17 +3463,37 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3752,13 +3518,21 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3783,13 +3557,22 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #241, LENA</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3814,13 +3597,22 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>201 DODDS DRIVE</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3845,13 +3637,22 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/82qhta5RyXsUSC2u9</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3876,9 +3677,21 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Jaliyah</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3905,17 +3718,17 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -3944,12 +3757,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -3983,12 +3796,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>22)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -4022,12 +3835,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>23)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Taquaysha</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -4037,6 +3850,122 @@
       </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Dec 10</t>
+          <t>Sun, Dec 17</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Dec 11</t>
+          <t>Mon, Dec 18</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Dec 12</t>
+          <t>Tue, Dec 19</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Dec 13</t>
+          <t>Wed, Dec 20</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Dec 14</t>
+          <t>Thu, Dec 21</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Dec 15</t>
+          <t>Fri, Dec 22</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Dec 16</t>
+          <t>Sat, Dec 23</t>
         </is>
       </c>
     </row>
@@ -656,11 +656,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -670,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:45 AM MEET BAYSHORE</t>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -678,7 +674,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM MEET BAYSHORE</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -686,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:15 AM MEET OFFICE</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -694,7 +690,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM MEET OFFICE</t>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -702,7 +698,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM MEET OFFICE</t>
+          <t>5:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -711,17 +707,13 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -729,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -737,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -745,7 +737,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -753,7 +745,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -762,17 +754,13 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #220, MUSKEGO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -780,7 +768,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -788,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -813,17 +801,13 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>W189 S7847 RACINE AVE</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #117, NEW HOLSTEIN</t>
+          <t>DHILLON'S STATION 26 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -831,7 +815,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #116, SHEBOYGAN FALLS</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>DHILLON'S BP, NEOSHO</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -847,7 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>QUAD MED, LOMIRA</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -855,7 +839,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>LAKHBIR REFUEL PANTRY - MILLPOND - MADISON - 5150</t>
+          <t>DHILLON'S MOBIL, COLGATE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -864,17 +848,13 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/3aRXzfmExPr</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2243 CALUMET DR</t>
+          <t>2615 MILTON AVE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -882,7 +862,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1166 FOND DU LAC AVE</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>446 S SCHUYER ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -898,7 +878,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>N11896 STATE ROAD 175</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -906,7 +886,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>6410 MILLPOND RD</t>
+          <t>4522 HWY Q</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -921,7 +901,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n2gTQ4PdhDR2</t>
+          <t>https://goo.gl/maps/PPJzRGhMky1EUtpY6</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -929,7 +909,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4eFLsvJCjBo</t>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -937,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -945,7 +925,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tuUnpKTfjBdvJaoS7</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -953,7 +933,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Z5X9h2AfW65VoTkx9</t>
+          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -961,21 +941,9 @@
       <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -988,17 +956,13 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>5:15 am meet at Grafton Park n Ride, Carlie &amp; Tanner</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1008,16 +972,8 @@
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -1032,9 +988,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Driver,
-Altima
-Equip</t>
+          <t>Driver, Altima, Equip</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1051,26 +1005,30 @@
       <c r="K15" t="inlineStr">
         <is>
           <t>Driver,
-Altima
-Equip</t>
+Altima, Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -1079,28 +1037,21 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -1127,27 +1078,37 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima,
+Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>QUAD MED, SUSSEX</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1159,29 +1120,16 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -1191,14 +1139,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>@ Grafton</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,28 +1151,31 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>W227 N6103 SUSSEX RD</t>
+          <t>Marty</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1240,29 +1187,21 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Until 10:30</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1272,15 +1211,10 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Driver, Camry,
-Grafton @ 6:00</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1289,23 +1223,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>@ Store,
+(w/ Tanner)</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/syeNugSFcfR2</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1317,81 +1268,63 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>w/ DJ</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store,
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Grace</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1400,56 +1333,20 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>w/ DJ</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -1464,40 +1361,35 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>QUAD MED, WEST ALLIS</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>4:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
@@ -1508,21 +1400,33 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>555 S 108TH ST</t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1545,7 +1449,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1553,19 +1457,23 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DHILLON'S HARTLAND VILLAGE MART</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cnXzCbAxoZm</t>
+          <t xml:space="preserve">EXCEL FINANCIAL   </t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1573,7 +1481,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1588,7 +1496,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ROCKFORD CREW WILL MEET UP AT WATERTOWN PLANK AS WELL, &amp; FOLLOW TO SITE</t>
+          <t>DHILLON'S STATION HUSTISFORD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1596,7 +1504,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>301 E CAPITOL DR</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1604,19 +1512,23 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>SAI MART MOBIL, CALEDONIA</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DHILLON'S BP, MARKESAN</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1631,7 +1543,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7:45 AM MEET WATERTOWN PLANK</t>
+          <t>326 W JUNEAU ST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1639,7 +1551,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1647,31 +1559,23 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>13600 7 MILE RD</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1686,35 +1590,27 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>501 W BROWN DEER RD</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>https://goo.gl/maps/ZNA4B87RhUzwguBb7</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1722,7 +1618,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1737,43 +1633,38 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>4:15 am meet at Grafton Park n Ride, Carlie &amp; Tanner</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DARIEN CORNER MART</t>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1789,38 +1680,46 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CHILDREN'S HOSPITAL OF WI, MILWAUKEE</t>
+          <t>Carlie &amp; Tanner will be going to Watertown plank</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>101 W BELOIT ST</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1829,12 +1728,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -1846,31 +1746,48 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>9000 W WISCONSIN AVE</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ftfmvN9v8RLS5PeU8</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -1880,14 +1797,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1896,24 +1809,44 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xKN8zVikPpP2</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1927,14 +1860,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -1943,58 +1872,50 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>17235 W BLUEMOUND RD</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Driver,
-Camry, Equip</t>
+          <t>Until noon</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Alyssa R</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store, Until 11</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2005,63 +1926,39 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Angela B</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2070,53 +1967,50 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">5:30 AM MEET OFFICE </t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2125,22 +2019,14 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2152,26 +2038,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>LAKHBIR MOBIL, DEERFIELD (28) 5436</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2180,14 +2058,10 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>4:00 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2195,43 +2069,31 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>RYAN ROAD MOBIL INC, 
+OAK CREEK</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>6:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>216 S MAIN ST</t>
+          <t xml:space="preserve">EXCEL FINANCIAL  </t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Russ</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd Pig, work w/ Alyssa H</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2240,26 +2102,18 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Until noon</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>9444 S CHICAGO RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2267,7 +2121,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2275,13 +2129,17 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6KALK2Gp8aUEwFUU8</t>
+          <t>LYONS MOBIL PLAZA</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>LAKHBIR RIO KWIK STOP INC (5) 0796</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2291,27 +2149,18 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Driver, 
-Sante Fe</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>https://goo.gl/maps/jiVP4wr9rjt</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2319,17 +2168,25 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>1415 MILL ST</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>105 E HWY 16</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2339,21 +2196,13 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2362,32 +2211,23 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #041, JEFFERSON</t>
+          <t xml:space="preserve">EXCEL FINANCIAL    </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/VZmKTDEtd5Kj21Ft8</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>4:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>https://goo.gl/maps/PdRS5AtPzyKR2NnE9</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2399,21 +2239,13 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>2002 W GALENA AVE</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2422,45 +2254,33 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Camry available, Equip</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>921 W RACINE ST</t>
+          <t>WATERTOWN BP MART INC</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Help Ian if needed</t>
-        </is>
-      </c>
+          <t>APPROX 10:00 AM START</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2471,7 +2291,11 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2481,7 +2305,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2489,30 +2313,34 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aktNmKJzJvm</t>
+          <t>330 SUMMIT AVE</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2525,45 +2353,42 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPRD</t>
+          <t>https://maps.app.goo.gl/ixqrWsSBrmsGF1Xc6</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>BP, PALMYRA</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2572,30 +2397,51 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">EVERYONE MUST USE THE MEET EVEN THOUGH IT'S LOCAL - RX IS HARD TO FIND IN HOSPITAL                   </t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>APPROX 10:30/11:30 AM START</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>162 E MAIN ST</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>703 N ELIDA STREET</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2607,42 +2453,50 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ROCKFORD CREW WILL MEET UP AT WATERTOWN PLANK AS WELL, &amp; FOLLOW TO SITE</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">EXCEL FINANCIAL  </t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/CbJXKj5szUJTYT456</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2654,10 +2508,14 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7:45 AM MEET WATERTOWN PLANK</t>
+          <t>Marty</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2665,38 +2523,33 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>COLGATE BP</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2706,10 +2559,14 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2717,47 +2574,39 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>**DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>N96 W21962 COUNTY LINE RD</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Ace, Equip</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2766,10 +2615,14 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2777,41 +2630,33 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>LAKHBIR MADISON TRAVEL PLAZA INC (PINE CONE), DEFOREST - 5254</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>https://maps.app.goo.gl/wAxzpFTHX3fvLe3v6</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2821,63 +2666,49 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CHILDREN'S HOSPITAL OF WI EPC, MILWAUKEE</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LAKHBIR REFUEL PANTRY-WISCONSIN DELLS  (18) 5301</t>
+          <t>6162 US Hwy 51</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #168, EDGERTON</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2886,61 +2717,54 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9000 W WISCONSIN AVE</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>N390 US HWY 12</t>
+          <t>https://goo.gl/maps/qUz2sYsKfwZxEHsM6</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van, Equip</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1211 N MAIN ST</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Supv Groc</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2949,51 +2773,45 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/crk8HN1Gdv2jTvTt6</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Dyg76G4Q1meR6yXv9</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9YbLUf3aGUH2</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3002,40 +2820,56 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NEED A SEPARATE TIMESHEET FOR EACH CHILDREN'S HOSP SITE</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Jaliyah</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>FEW RESETS-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3045,27 +2879,35 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lashaun/Cynthia start up at IP first, they will escort you back to EPC.  Back to IP when wrapped up</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Red Van</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3077,21 +2919,9 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3100,24 +2930,36 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store,
+All Equip</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3125,32 +2967,12 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3162,64 +2984,35 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Taquaysha</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3228,66 +3021,25 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3308,37 +3060,13 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3348,7 +3076,11 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3359,39 +3091,13 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store
-Bring Box + TS Laptop,
-Help Kim</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3401,7 +3107,11 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START  </t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3412,37 +3122,13 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3452,7 +3138,11 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3463,37 +3153,13 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3503,7 +3169,11 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>EXXON, JANESVILLE</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3518,21 +3188,9 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3542,7 +3200,11 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1905 E MILWAUKEE ST</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3557,22 +3219,9 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3582,7 +3231,11 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/1nntoY9vKzVwmsTv8</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3597,22 +3250,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3637,22 +3277,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3661,9 +3288,22 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3677,21 +3317,9 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3700,8 +3328,16 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3716,21 +3352,9 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3755,21 +3379,9 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3794,21 +3406,9 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>22)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3817,8 +3417,16 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -3833,21 +3441,9 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Taquaysha</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -3856,8 +3452,16 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START  </t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -3884,7 +3488,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -3911,7 +3519,11 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, MAYVILLE</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3927,11 +3539,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3942,7 +3550,11 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1400 HORICON ST</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -3958,14 +3570,224 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Camry, Equip</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Russ</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Dec 17</t>
+          <t>Sun, Dec 24</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Dec 18</t>
+          <t>Mon, Dec 25</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Dec 19</t>
+          <t>Tue, Dec 26</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Dec 20</t>
+          <t>Wed, Dec 27</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Dec 21</t>
+          <t>Thu, Dec 28</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Dec 22</t>
+          <t>Fri, Dec 29</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,9 +472,11 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Dec 23</t>
-        </is>
-      </c>
+          <t>Sat, Dec 30</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -502,6 +504,8 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -529,6 +533,8 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -560,6 +566,8 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -591,6 +599,8 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -622,6 +632,8 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -653,10 +665,16 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>**CHRISTMAS EVE**</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -666,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>**CHRISTMAS DAY**</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -674,7 +692,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
+          <t>5:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -682,7 +700,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -690,7 +708,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -698,12 +716,18 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -711,11 +735,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -751,6 +771,12 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -758,17 +784,13 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +798,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +806,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,12 +814,18 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -805,17 +833,13 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION 26 LLC, JANESVILLE</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,7 +847,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, NEOSHO</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -831,7 +855,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -839,12 +863,18 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>DHILLON'S MOBIL, COLGATE</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>RAPID MART HARTFORD</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -852,17 +882,13 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2615 MILTON AVE</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -870,7 +896,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>446 S SCHUYER ST</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -878,7 +904,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -886,12 +912,18 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>4522 HWY Q</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -899,17 +931,13 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PPJzRGhMky1EUtpY6</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -917,7 +945,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
+          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -925,7 +953,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -933,12 +961,18 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -950,335 +984,249 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>5:15 am meet at Grafton Park n Ride, Carlie &amp; Tanner</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STORE RESET-REMAPPED </t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Driver, Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima,
-Equip</t>
-        </is>
-      </c>
+          <t>ROTE OIL #04 GENOA CITY</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 10:30</t>
-        </is>
-      </c>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>@ Store,
-(w/ Tanner)</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/Xzs9P5H29WqU4pVc8</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1290,36 +1238,23 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>APPROX 10:00/11:00 AM START</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>@ Store,
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1327,6 +1262,8 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1338,22 +1275,61 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>9:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1361,38 +1337,61 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>YAHR OIL MAYFIELD MOBIL, RICHFIELD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>4:30 AM MEET OFFICE</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10:00 AM START</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1400,17 +1399,13 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>2545 MAYFIELD WAY</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1418,28 +1413,26 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7:00 AM START </t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1447,17 +1440,13 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DHILLON'S HARTLAND VILLAGE MART</t>
+          <t>https://goo.gl/maps/gfRz9yn1zFS2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1465,28 +1454,26 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EXCEL FINANCIAL   </t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>BELGIUM PLAZA BP</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1494,33 +1481,21 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION HUSTISFORD</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>301 E CAPITOL DR</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>SAI MART MOBIL, CALEDONIA</t>
+          <t>6:30 AM RACINE COURT(HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1528,12 +1503,18 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MARKESAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>105 LAKE VIEW DR</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1541,33 +1522,46 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>326 W JUNEAU ST</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>13600 7 MILE RD</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1575,12 +1569,18 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Tm8LjACbUe42</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1588,21 +1588,34 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/2MvPuCPioicrHiKc6</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1610,7 +1623,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNA4B87RhUzwguBb7</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1618,12 +1631,14 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+          <t>SERVE YOU PHARMACY, WAUWATOSA</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1631,46 +1646,49 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4:15 am meet at Grafton Park n Ride, Carlie &amp; Tanner</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>KANSASVILLE CITGO QUICK MART</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>10201 INNOVATION DR, STE 100</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1678,67 +1696,44 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Carlie &amp; Tanner will be going to Watertown plank</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>23010 DURAND AVE</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/KoXB6dUABdyxHvCT9</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1749,218 +1744,184 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">5:30 AM START </t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ROTE OIL #6 HUBERTUS</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Until noon</t>
-        </is>
-      </c>
+          <t>ROTE OIL #10 MUKWONAGO-ROCHESTER</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>WI HEALTH FUND, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1306 HWY 175</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>TWIN LAKES CITGO, TWIN LAKES</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6118 W BLUEMOUND RD</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1974,32 +1935,23 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>410 N LAKE AVE</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2007,12 +1959,14 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM MEET OFFICE </t>
+          <t>https://goo.gl/maps/obe9aWcnusE2</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2026,32 +1980,34 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2059,43 +2015,52 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4:00 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>RYAN ROAD MOBIL INC, 
-OAK CREEK</t>
+          <t xml:space="preserve">DC5-FINANCIAL      </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL  </t>
+          <t>APPROX 12:00/1:00 PM</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2103,17 +2068,13 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9444 S CHICAGO RD</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2121,7 +2082,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:15 AM MEET OFFICE</t>
+          <t>ROTE OIL #12 MUKWONAGO-(AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2129,20 +2090,26 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>LYONS MOBIL PLAZA</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>LAKHBIR RIO KWIK STOP INC (5) 0796</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2150,17 +2117,13 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jiVP4wr9rjt</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2168,7 +2131,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2176,20 +2139,26 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1415 MILL ST</t>
+          <t>SALEM MINI MART</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>105 E HWY 16</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2197,21 +2166,21 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL    </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2219,20 +2188,30 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VZmKTDEtd5Kj21Ft8</t>
+          <t>8246 ANTIOCH RD</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PdRS5AtPzyKR2NnE9</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2240,33 +2219,21 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2002 W GALENA AVE</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>WATERTOWN BP MART INC</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2274,7 +2241,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>APPROX 10:00 AM START</t>
+          <t>https://goo.gl/maps/SJGSTVqu3KCJZw719</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2284,6 +2251,8 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2291,21 +2260,13 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2313,36 +2274,22 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>330 SUMMIT AVE</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2354,121 +2301,111 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ROTE OIL #8 ELM GROVE</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ixqrWsSBrmsGF1Xc6</t>
+          <t>ROTE OIL  #11 MUKWONAGO-(BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>BP, PALMYRA</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver, Camry, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>13395 WATERTOWN PLANK RD</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>162 E MAIN ST</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2476,216 +2413,187 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL  </t>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CbJXKj5szUJTYT456</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>NORTH SHORE PHARMACY AND COMPOUNDING CENTER (YE OLDE PHARMACY, CEDARBURG)</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>COLGATE BP</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>N54 W6135 MILL STREET</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>**DC5-FINANCIAL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>N96 W21962 COUNTY LINE RD</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/box5cQ4JZFH2</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>LAKHBIR MADISON TRAVEL PLAZA INC (PINE CONE), DEFOREST - 5254</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/wAxzpFTHX3fvLe3v6</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>LOCATED IN CREEKSIDE STRIPMALL</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6162 US Hwy 51</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2694,147 +2602,116 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW </t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qUz2sYsKfwZxEHsM6</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>*AUDITORS HERE</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>6:30 AM MEET SOUTH RACINE COURT (HWYS 43 &amp; Y)</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>KARL'S COUNTRY MARKET, MENOMONEE FALLS</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">** NEW NORTH SHORE PHARMACY, SHOREWOOD </t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Jaliyah</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -2843,57 +2720,51 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>W156 N5645 PILGRIM RD</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>1421 EAST CAPITOL DR</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -2902,112 +2773,107 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Red Van</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zL8HEmfSEtR2</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/KPDGecpzd6mQr8EKA</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store,
-All Equip</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>MILLGATE GENERAL STORE, BURLINGTON</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>NEW LOCATION MAPPED</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Taquaysha</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>151 MILLGATE DR</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3015,6 +2881,8 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3026,22 +2894,48 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JmyTfGd26bD2FKyR8</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>*AUDITORS HERE</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3053,7 +2947,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3061,14 +2959,32 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>**NEW KARL'S COUNTRY MART, MENOMONEE FALLS</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>(Stools)</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3076,30 +2992,57 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>YAHR OIL CARDINAL SERVICE MOBIL, HARTLAND</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>N56 W15654 SILVER SPRING DR</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3107,30 +3050,52 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7:00 AM START  </t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>805 CARDINAL LANE</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/eVhY1gyT1JDFaLmT9</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3138,19 +3103,27 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/aELMdyfpGL62</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3162,6 +3135,8 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3169,30 +3144,44 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>EXXON, JANESVILLE</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>APPROX 8:30/9:30 AM START</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3200,30 +3189,44 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1905 E MILWAUKEE ST</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>5:45 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3231,30 +3234,48 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/1nntoY9vKzVwmsTv8</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3266,51 +3287,68 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>N6485 COUNTY RD F</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>LAKHBIR REFUEL PANTRY (BP) - WEST BEND - 5351</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3318,26 +3356,24 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>LAKHBIR FALL RIVER STATION MOBIL MART - (9) 0213</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3345,7 +3381,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>5105 HWY P</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3353,10 +3393,16 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>722 S MAIN ST</t>
+        </is>
+      </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -3367,23 +3413,49 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/M8kRPfzkmq2BqJE97</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pMm5Z3irLCiXTjKz8</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -3394,8 +3466,16 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3403,7 +3483,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3411,76 +3495,118 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>SKYWALK PHARMACY, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Driver, Camry, Equip</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>9000 W WISCONSIN AVE</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -3488,30 +3614,52 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qcvSsqFGhMp</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Marty</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -3519,30 +3667,52 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Until Noon</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -3550,30 +3720,52 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1400 HORICON ST</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Marty</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -3581,23 +3773,31 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -3605,6 +3805,8 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -3616,15 +3818,27 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>141 MAIN ST</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -3632,30 +3846,24 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -3671,30 +3879,24 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>APPROX 9:30/10:30 AM START</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -3710,30 +3912,24 @@
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -3749,30 +3945,24 @@
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Russ</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>RON'S MARKET, HELENVILLE</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -3788,6 +3978,430 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>W3094 HWY 18</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/pyYX7wkpwom</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>APPROX 11:30 AM/12:30 PM START</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>MAIN STREET STATION, JEFFERSON</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>1411 S MAIN STREET</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ssR6hprqPEt</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Brett</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Train w/ Lashaun</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Dec 31</t>
+          <t>Sun, Jan 7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Jan 1</t>
+          <t>Mon, Jan 8</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Jan 2</t>
+          <t>Tue, Jan 9</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Jan 3</t>
+          <t>Wed, Jan 10</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Jan 4</t>
+          <t>Thu, Jan 11</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Jan 5</t>
+          <t>Fri, Jan 12</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,11 +472,9 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Jan 6</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
+          <t>Sat, Jan 13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -504,8 +502,6 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -533,25 +529,47 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -562,12 +580,18 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -579,8 +603,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -599,8 +631,6 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -632,8 +662,6 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -665,14 +693,12 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -684,7 +710,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>**NEW YEAR'S DAY**</t>
+          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -692,7 +718,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>*AUDITORS HERE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -716,18 +742,12 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -739,13 +759,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -761,7 +785,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -769,36 +793,34 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
+          <t>PIGGLY WIGGLY #201, CEDARBURG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -806,7 +828,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SENDIK'S, HARTLAND</t>
+          <t>SENDIK'S, MEQUON</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -814,7 +836,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>SENDIK'S, WAUKESHA</t>
+          <t>PICK #846 +RX, WEST ALLIS-108TH ST</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -822,36 +844,34 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SENDIK'S, NEW BERLIN</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #200, MEQUON</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2826 S KINNICKINNC AVE</t>
+          <t>W61 N286 WASHINGTON AVE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA - LIFO</t>
+          <t>1450 OLYMPIA FIELDS DRIVE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -859,7 +879,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>606 HARTBROOK AVE</t>
+          <t>10930 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -867,7 +887,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>701 MEADOWBROOK RD</t>
+          <t>2625 S 108TH ST</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -875,36 +895,34 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>3600 S MOORLAND RD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>6111 W MEQUON RD</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
+          <t>https://goo.gl/maps/QamMdWSr16N2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1001 E GENEVA SQUARE</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/fGkbRfEuC1Cuvpzp6</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -912,7 +930,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KfEhy9qyAAw</t>
+          <t>https://goo.gl/maps/9khShk1hnMC2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -920,7 +938,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nTzjcbrWXSU2</t>
+          <t>https://goo.gl/maps/BUUQissbQNk</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -928,18 +946,12 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>SENDIK'S, GRAFTON</t>
+          <t>https://goo.gl/maps/FETDnDoxdxA2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vQEGbDwowNJ7UTyo7</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -947,21 +959,21 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -969,22 +981,16 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>RESET-REMAPPED</t>
+          <t>LIQUOR RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2195 1ST AVE</t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brett</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Sante Fe available</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1007,45 +1013,51 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Carlie &amp; Tanner, Grafton meet at 5:15 am</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SET UP ON REGISTER 1</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7S8pmjp4vMm</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1055,21 +1067,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
@@ -1079,50 +1107,36 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Brett</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Brett</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Let Jake know if you plan on meeting at store this day</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>(stools)</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1132,34 +1146,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1168,38 +1182,40 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1209,34 +1225,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Prius, Equip,
+Assist Kim</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1245,50 +1266,36 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1298,33 +1305,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(w/ Tanner)
-(stools)</t>
+          <t xml:space="preserve">*leave by 8:00 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1335,73 +1350,70 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1413,76 +1425,82 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until noon</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 11:00</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1494,238 +1512,273 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Marty</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, MEQUON</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>8)</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>7590 W MEQUON RD</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1734,55 +1787,57 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>9)</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/do2xmdVUL8z</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1791,51 +1846,61 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>10)</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>EAST SIDE MART, JACKSON</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>4:45 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1843,190 +1908,212 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
           <t>11)</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>N168 W1940 MAIN ST</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>MILLER &amp; SONS SUPERMARKET, VERONA</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Red Van available</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>12)</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>PRO CLIP USA, MADISON</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>210 S MAIN ST</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>4915 VOGES RD</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>METRO MARKET #181, MONONA</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>https://g.page/MillerSonsSupermarket?share</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Train w/ Lashaun</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #204, KENOSHA</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2035,167 +2122,143 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Camry, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kcG2Q7HcnDk3eYT17</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6540 MONONA DRIVE</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2801 14TH PLACE</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>9:00 AM START</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Column Lookup a must.   Make sure to bring Red tags if possible. </t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://maps.app.goo.gl/5uiZky81WGV4zPD8A</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>SENDIK'S, FRANKLIN</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>Brett</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2207,330 +2270,425 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>GENOA CITY LIQUORS</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>@ Store, Equip</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>5200 W RAWSON AVE</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>413 WALWORTH ST</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KnaHZCnxjJy</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Equip,
+Assist Kim</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>**DC5-ITEM LEVEL SCAN</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>OPEN PANTRY #493, RACINE</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Brett</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Camry, Equip</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>3441 SPRING ST</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>4:15 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>100 E CAPITOL DR</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2540,41 +2698,39 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2589,26 +2745,34 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -2617,38 +2781,12 @@
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -2658,26 +2796,35 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>935 8TH ST</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2686,37 +2833,19 @@
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Whitney</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2728,21 +2857,17 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2752,24 +2877,18 @@
       </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2786,12 +2905,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2801,24 +2920,18 @@
       </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2829,30 +2942,18 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2862,24 +2963,18 @@
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #209, KENOSHA</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2890,31 +2985,18 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Driver 1/2,
-Camry</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Jake K</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2924,8 +3006,6 @@
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2933,7 +3013,11 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7600 PERSHING BLVD</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2944,30 +3028,27 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver 1/2,
-Camry</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -2975,7 +3056,11 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2986,37 +3071,39 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>If not finished counting by 11, Carlie take Mai back</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3027,33 +3114,31 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -3068,42 +3153,49 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3113,42 +3205,49 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>7000 W STATE ST</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3158,41 +3257,31 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3203,38 +3292,36 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3244,49 +3331,31 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3297,50 +3366,36 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3350,50 +3405,36 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Whitney</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3412,29 +3453,27 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3453,8 +3492,593 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #208, DELAVAN</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1414 E GENEVA ST</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/hixkUheCekD2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Jan 7</t>
+          <t>Sun, Jan 14</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Jan 8</t>
+          <t>Mon, Jan 15</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Jan 9</t>
+          <t>Tue, Jan 16</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Jan 10</t>
+          <t>Wed, Jan 17</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Jan 11</t>
+          <t>Thu, Jan 18</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Jan 12</t>
+          <t>Fri, Jan 19</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,9 +472,11 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Jan 13</t>
-        </is>
-      </c>
+          <t>Sat, Jan 20</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -502,6 +504,8 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -529,47 +533,25 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bags 5-7</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Bags 5-7</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bags 1-3</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -580,18 +562,12 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Bags 1-3</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -603,16 +579,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Bags 1-3</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -631,6 +599,8 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -662,6 +632,8 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -693,14 +665,12 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -710,7 +680,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -718,7 +688,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -748,20 +718,22 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -769,7 +741,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -777,7 +749,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -793,26 +765,28 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #201, CEDARBURG</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SENDIK'S, GREENFIELD</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -820,7 +794,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SENDIK'S, OCONOMOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -828,7 +802,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>SENDIK'S, MEQUON</t>
+          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -836,7 +810,8 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PICK #846 +RX, WEST ALLIS-108TH ST</t>
+          <t>METRO #892 +RX, MENOMONEE FALLS - 
+COUNTY LINE RD</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -844,26 +819,28 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>SENDIK'S, NEW BERLIN</t>
+          <t>PICK #845 +RX, MILWAUKEE - LOOMIS</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>SENTRY #18-1155, MILWAUKEE-92ND</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>W61 N286 WASHINGTON AVE</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #207, LAKE GENEVA</t>
+          <t>7901 W LAYTON AVE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -871,7 +848,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1450 OLYMPIA FIELDS DRIVE</t>
+          <t>PICK #871 +RX, KENOSHA - NORTH</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -879,7 +856,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10930 N PORT WASHINGTON RD</t>
+          <t>6462 S 27TH ST</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -887,7 +864,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2625 S 108TH ST</t>
+          <t>N95 W18351 COUNTY LINE RD</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -895,26 +872,28 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3600 S MOORLAND RD</t>
+          <t>3701 S 27TH ST</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>9210 W LISBON AVE</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QamMdWSr16N2</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1001 E GENEVA SQUARE</t>
+          <t>https://goo.gl/maps/3HPJKid7f7Q2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -922,7 +901,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fGkbRfEuC1Cuvpzp6</t>
+          <t>2811 - 18TH STREET</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -930,7 +909,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9khShk1hnMC2</t>
+          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -938,7 +917,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BUUQissbQNk</t>
+          <t>https://goo.gl/maps/KutaqrX9XEx</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -946,12 +925,18 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FETDnDoxdxA2</t>
+          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ghbXFDkMNyntyekCA</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -959,468 +944,492 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Tbkoc8cC9Nr</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/tq1opM5rw242</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>LIQUOR RESET-REMAPPED</t>
+          <t>RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESET-REMAPPED </t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sante Fe available</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>SET UP ON REGISTER 1</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Sante Fe available</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Until 12:45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>(stools)</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>3)</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Help w/ Equip (Box)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Prius, Equip,
-Assist Kim</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*leave by 8:00 </t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>5)</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1436,55 +1445,57 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Marty</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
           <t>6)</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1495,53 +1506,55 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1550,12 +1563,12 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1566,61 +1579,59 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1629,12 +1640,12 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1645,12 +1656,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1661,12 +1672,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1677,33 +1688,39 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1712,12 +1729,12 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1728,12 +1745,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1744,12 +1761,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1760,39 +1777,69 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1803,37 +1850,56 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1846,12 +1912,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1862,12 +1928,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Jake K</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1878,12 +1944,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1892,15 +1958,25 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1908,21 +1984,17 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1933,12 +2005,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1949,12 +2021,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1963,15 +2035,25 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1988,12 +2070,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2004,12 +2086,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2020,12 +2102,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2034,15 +2116,25 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2057,18 +2149,30 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2079,12 +2183,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2093,15 +2197,25 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>METRO MARKET #181, MONONA</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2111,23 +2225,35 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #204, KENOSHA</t>
+          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t xml:space="preserve">16) </t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2138,29 +2264,40 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>6540 MONONA DRIVE</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2170,17 +2307,13 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2801 14TH PLACE</t>
+          <t>340 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>9:00 AM START</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2189,12 +2322,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t xml:space="preserve">16) </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2203,15 +2336,25 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16) </t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5uiZky81WGV4zPD8A</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2221,44 +2364,30 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
+          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2266,13 +2395,17 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>GENOA CITY LIQUORS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2280,71 +2413,40 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:15 AM MEET AT THE OFFICE</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>413 WALWORTH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2352,72 +2454,48 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Equip,
-Assist Kim</t>
-        </is>
-      </c>
+          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/YdvojF2HzVXXgrKHA</t>
+          <t>METRO #876, GLENDALE - GREEN TREE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2425,341 +2503,275 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>PICK #374, PEWAUKEE-CAPITOL DR</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>824 N 16TH STREET</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6969 N PORT WASHINGTON RD</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>1405 CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>PICK #381, MUSKEGO</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>PICK #357 +RX, GERMANTOWN</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ho2n746veYC2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>https://goo.gl/maps/fM2WtjtDye32</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>S74 W17005 JANESVILLE ROAD</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>N112 W16200 MEQUON RD</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>22)</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/H8srKt8FVUp</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/EHNPxYdtCp82</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Sante Fe available</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>23)</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">RESET-REMAPPED </t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Prius available, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -2767,38 +2779,56 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2806,120 +2836,193 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>After C-store</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Help w/ Equip (Box)</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2927,42 +3030,68 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>After C-store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -2970,42 +3099,68 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #209, KENOSHA</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3013,33 +3168,65 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7600 PERSHING BLVD</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3049,6 +3236,8 @@
       </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3056,42 +3245,77 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/JzRgLG7fbbR2</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3099,33 +3323,65 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>If not finished counting by 11, Carlie take Mai back</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3135,6 +3391,8 @@
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3145,26 +3403,62 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -3174,49 +3468,74 @@
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3226,102 +3545,148 @@
       </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3331,31 +3696,37 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3375,30 +3746,24 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3414,30 +3779,24 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3453,30 +3812,24 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3492,30 +3845,24 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>*SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3531,6 +3878,8 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3542,7 +3891,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SAI MART, ALLENTON</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3558,6 +3911,8 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3569,7 +3924,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>750 CHURCH ST</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3585,6 +3944,8 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3592,15 +3953,15 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/Pns5NQS5JB8xGLAy7</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3616,6 +3977,8 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3623,11 +3986,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3647,6 +4006,8 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3654,16 +4015,25 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #208, DELAVAN</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry, Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3678,6 +4048,8 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -3685,15 +4057,19 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1414 E GENEVA ST</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -3709,376 +4085,8 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/hixkUheCekD2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Jan 14</t>
+          <t>Sun, Jan 21</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Jan 15</t>
+          <t>Mon, Jan 22</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Jan 16</t>
+          <t>Tue, Jan 23</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Jan 17</t>
+          <t>Wed, Jan 24</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Jan 18</t>
+          <t>Thu, Jan 25</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Jan 19</t>
+          <t>Fri, Jan 26</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,11 +472,9 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Jan 20</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
+          <t>Sat, Jan 27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -504,8 +502,6 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -533,8 +529,6 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -546,28 +540,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -587,20 +599,30 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -632,8 +654,6 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -665,8 +685,6 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -680,7 +698,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -688,7 +706,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -696,7 +714,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -712,28 +730,26 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -741,7 +757,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -749,7 +765,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -765,18 +781,12 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -786,7 +796,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SENDIK'S, GREENFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -794,7 +804,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #418 +RX, MILWAUKEE-GOOD HOPE RD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -802,7 +812,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -810,8 +820,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #892 +RX, MENOMONEE FALLS - 
-COUNTY LINE RD</t>
+          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -819,18 +828,12 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #845 +RX, MILWAUKEE - LOOMIS</t>
+          <t>ALBRECHT'S DELAFIELD MARKET</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>SENTRY #18-1155, MILWAUKEE-92ND</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -840,7 +843,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7901 W LAYTON AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -848,7 +851,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>PICK #871 +RX, KENOSHA - NORTH</t>
+          <t>7401 WEST GOOD HOPE ROAD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -856,7 +859,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6462 S 27TH ST</t>
+          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -864,7 +867,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>N95 W18351 COUNTY LINE RD</t>
+          <t>250 W HOLT AVE</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -872,18 +875,12 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3701 S 27TH ST</t>
+          <t>3255 GOLF RD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>9210 W LISBON AVE</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -893,7 +890,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3HPJKid7f7Q2</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -901,7 +898,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2811 - 18TH STREET</t>
+          <t>https://goo.gl/maps/Jt3SUFRkx4bqYKL39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -909,7 +906,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
+          <t>1317 N 25TH STREET</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +914,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KutaqrX9XEx</t>
+          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -925,18 +922,12 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
+          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ghbXFDkMNyntyekCA</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -944,154 +935,138 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/tq1opM5rw242</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>RESET-REMAPPED</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESET-REMAPPED </t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Nate</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>@ Store, Equip</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sante Fe available</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Sante Fe available</t>
-        </is>
-      </c>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Until 12:45</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1100,89 +1075,73 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Sante Fe available</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Until 12:45</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1198,77 +1157,51 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Help w/ Equip (Box)</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1280,67 +1213,53 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1361,85 +1280,69 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Until noon</t>
+          <t>Driver,
+Red Van
+Rx</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1450,80 +1353,66 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Help w/ Equip</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Help w/ Equip</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1535,72 +1424,62 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>*After c-store</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1612,79 +1491,65 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>*After c-store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>300 PELLER RD</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1693,64 +1558,50 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1761,12 +1612,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1782,64 +1633,46 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1850,18 +1683,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1872,52 +1704,54 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1928,12 +1762,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1949,47 +1783,50 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2005,12 +1842,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2026,72 +1863,71 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2107,34 +1943,16 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2142,21 +1960,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2167,12 +1981,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2188,34 +2002,16 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2223,21 +2019,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SENDIK'S FRESH2GO, BAYSIDE</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2248,12 +2040,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">16) </t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2269,35 +2061,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>4:45 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2307,27 +2088,51 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>340 W BROWN DEER RD</t>
+          <t>7:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">16) </t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2336,25 +2141,15 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16) </t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2364,7 +2159,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CmpDt8x8rNKaMffi6</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2377,17 +2172,31 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2397,25 +2206,17 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2423,12 +2224,14 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2438,7 +2241,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>X-TREME SMOKE #6, FORT ATKINSON-MADISON AVE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2446,7 +2249,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2454,30 +2257,24 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2487,7 +2284,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SENDIK'S FRESH2GO, MILWAUKEE-MARQUETTE</t>
+          <t>1642 MADISON AVE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2495,7 +2292,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>METRO #876, GLENDALE - GREEN TREE</t>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2503,7 +2300,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #374, PEWAUKEE-CAPITOL DR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2511,7 +2308,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2519,14 +2316,12 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2536,7 +2331,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>824 N 16TH STREET</t>
+          <t>https://goo.gl/maps/4wHk2xSaArVydLVk6</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2544,7 +2339,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6969 N PORT WASHINGTON RD</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2552,7 +2347,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1405 CAPITOL DRIVE</t>
+          <t>ROTE OIL #10 MUKWONAGO-ROCHESTER</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2560,7 +2355,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>PICK #381, MUSKEGO</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2568,14 +2363,12 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #357 +RX, GERMANTOWN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2585,7 +2378,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vvRFWmX5pX32</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2593,7 +2386,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ho2n746veYC2</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2601,7 +2394,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fM2WtjtDye32</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2609,7 +2402,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>S74 W17005 JANESVILLE ROAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2617,14 +2410,12 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>N112 W16200 MEQUON RD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2634,23 +2425,31 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/H8srKt8FVUp</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2658,14 +2457,12 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/EHNPxYdtCp82</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2673,344 +2470,224 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>X-TREME SMOKE #4, DELAVAN-GENEVA ST</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Sante Fe available</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t xml:space="preserve">RESET-REMAPPED </t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Prius available, Equip</t>
-        </is>
-      </c>
+          <t>1440 GENEVA ST</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL      </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/Xzs9P5H29WqU4pVc8</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>https://goo.gl/maps/whhEFYCZRcs</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>ROTE OIL #12 MUKWONAGO-(AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Check in w/ Delafield after</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>After C-store</t>
-        </is>
-      </c>
+          <t>5931 N 91ST ST</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Train w/ Lashaun</t>
-        </is>
-      </c>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Help w/ Equip (Box)</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3018,11 +2695,13 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3030,68 +2709,55 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>X-TREME SMOKE #5, BELOIT-BRANIGAN RD</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>After C-store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3099,68 +2765,42 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2600 BRANIGAN RD   SUITE E</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3168,76 +2808,38 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8AwCAAqZuXBH5MUN6</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #8 ELM GROVE</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL  #11 MUKWONAGO-(BP) ARROWHEAD</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3248,436 +2850,284 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>13395 WATERTOWN PLANK RD</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Camry available, Equip</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #09 GREENFIELD</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3689,36 +3139,26 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3746,8 +3186,6 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3758,13 +3196,21 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3779,8 +3225,6 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3791,10 +3235,14 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3812,8 +3260,6 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3825,11 +3271,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3845,8 +3287,6 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3858,11 +3298,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3878,8 +3314,6 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3893,7 +3327,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>SAI MART, ALLENTON</t>
+          <t>7:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3911,8 +3345,6 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3926,7 +3358,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>750 CHURCH ST</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3944,8 +3376,6 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3959,7 +3389,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Pns5NQS5JB8xGLAy7</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3977,8 +3407,6 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3990,7 +3418,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>X-TREME SMOKE #1, JANESVILLE-COURT ST</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -4006,8 +3438,6 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4018,22 +3448,13 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry, Equip</t>
-        </is>
-      </c>
+          <t>1822 W COURT ST</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4048,8 +3469,6 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4060,14 +3479,10 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/AzUabxArRPr</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4085,8 +3500,535 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>X-TREME SMOKE #2, JANESVILLE-CENTER AVE</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1905 CENTER AVE</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/bQYgTdw95yv</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>X-TREME SMOKE #3, JANESVILLE-MILTON AVE</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2811 MILTON AVE</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/vT34ZiYMHs42</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Jan 21</t>
+          <t>Sun, Jan 28</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Jan 22</t>
+          <t>Mon, Jan 29</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Jan 23</t>
+          <t>Tue, Jan 30</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Jan 24</t>
+          <t>Wed, Jan 31</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Jan 25</t>
+          <t>Thu, Feb 1</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Jan 26</t>
+          <t>Fri, Feb 2</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Jan 27</t>
+          <t>Sat, Feb 3</t>
         </is>
       </c>
     </row>
@@ -540,43 +540,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -599,27 +579,15 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -696,43 +664,23 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -742,14 +690,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -757,7 +701,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -765,7 +709,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -773,7 +717,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -781,7 +725,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -796,7 +740,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -804,7 +748,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #418 +RX, MILWAUKEE-GOOD HOPE RD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -812,7 +756,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -820,7 +764,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -828,7 +772,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>ALBRECHT'S DELAFIELD MARKET</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -843,7 +787,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -851,7 +795,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7401 WEST GOOD HOPE ROAD</t>
+          <t>METRO #413 +RX, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -859,7 +803,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -867,7 +811,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>250 W HOLT AVE</t>
+          <t>METRO #893 +RX, SHOREWOOD</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -875,7 +819,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3255 GOLF RD</t>
+          <t>PICK #387 +RX, OAK CREEK-RYAN RD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -890,7 +834,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -898,7 +842,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Jt3SUFRkx4bqYKL39</t>
+          <t>36903 E WISCONSIN AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -906,7 +850,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1317 N 25TH STREET</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -914,7 +858,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
+          <t>4075 N OAKLAND AVE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -922,7 +866,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UZh6uE9Zs2H2</t>
+          <t>2320 W RYAN ROAD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -937,19 +881,23 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Uwk2eGLNZaB2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -957,13 +905,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/GGpTSE57XBK2</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -976,50 +928,42 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>SET UP ON 2ND LEVEL REG #12</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Sante Fe available</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -1031,74 +975,26 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Sante Fe available</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1110,62 +1006,74 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1177,58 +1085,76 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1240,54 +1166,54 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1307,76 +1233,62 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van
-Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Help w/ Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Help w/ Equip</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1386,56 +1298,57 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>*After c-store</t>
+          <t>PC Box</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1443,7 +1356,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>PC Box</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1452,62 +1369,74 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Camry, Equip</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>*After c-store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1519,62 +1448,76 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1587,21 +1530,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1612,23 +1551,23 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -1644,15 +1583,19 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1667,12 +1610,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Bella</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1683,43 +1626,44 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Marty</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Marty</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1728,30 +1672,22 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>6:30 AM MEET OFFICE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1762,43 +1698,43 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Bella</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1807,26 +1743,17 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1842,43 +1769,47 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1887,70 +1818,73 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1960,12 +1894,16 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1981,12 +1919,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1997,19 +1935,35 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2019,17 +1973,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>141 MAIN ST</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2040,12 +1998,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2056,12 +2014,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2070,13 +2028,21 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2088,19 +2054,19 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7:00 AM MEET AT THE OFFICE</t>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2111,12 +2077,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2127,12 +2093,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2141,13 +2107,21 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2157,29 +2131,49 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2188,13 +2182,21 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2203,33 +2205,75 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Driver,
+Prius, 
+Equip</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2238,41 +2282,57 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>X-TREME SMOKE #6, FORT ATKINSON-MADISON AVE</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:30 AM START </t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2282,44 +2342,53 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1642 MADISON AVE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL   </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2329,17 +2398,13 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4wHk2xSaArVydLVk6</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2347,25 +2412,29 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO-ROCHESTER</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2378,7 +2447,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>5:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2386,7 +2455,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>PICK #847 +FC-RX, WEST ALLIS-MARKET SQ</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2394,25 +2463,17 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2425,7 +2486,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2433,7 +2494,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>6760 W NATIONAL AVE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2441,23 +2502,19 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>PICK #877, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2472,7 +2529,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>X-TREME SMOKE #4, DELAVAN-GENEVA ST</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2480,7 +2537,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/G4vnZ7jFLF1ooLXD8</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2488,7 +2545,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>2901 S CHICAGO AVENUE</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2496,7 +2553,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>Milwaukee Office</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2504,7 +2561,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2519,7 +2576,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1440 GENEVA ST</t>
+          <t>PIGGLY WIGGLY #333, HOWARDS GROVE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2527,7 +2584,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL      </t>
+          <t>SET UP ON REG #7</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2535,7 +2592,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2543,7 +2600,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2551,7 +2608,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Xzs9P5H29WqU4pVc8</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2566,39 +2623,27 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/whhEFYCZRcs</t>
+          <t>714 S WISCONSIN DR</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>ROTE OIL #12 MUKWONAGO-(AMOCO) GREENWALD</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Check in w/ Delafield after</t>
+          <t>PICK #472 +RX, FOND DU LAC-PIONEER</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2613,37 +2658,53 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/P6vRkphRvWjMgYEv6</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>55 W PIONEER RD</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2654,52 +2715,52 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Until 12:45</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/Cccqh1Wg8xs</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2708,54 +2769,58 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>X-TREME SMOKE #5, BELOIT-BRANIGAN RD</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>25555 75TH ST</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2764,41 +2829,70 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2600 BRANIGAN RD   SUITE E</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>PC Box for Kim
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2807,36 +2901,60 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8AwCAAqZuXBH5MUN6</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO-(BP) ARROWHEAD</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2846,45 +2964,72 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>Marty</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2895,56 +3040,71 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>PC Box</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2955,34 +3115,62 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2994,37 +3182,45 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Camry available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3032,8 +3228,16 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3043,50 +3247,62 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3095,37 +3311,61 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Alyssa R</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3135,28 +3375,64 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3166,24 +3442,64 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START  </t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3193,22 +3509,26 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL     </t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Camry available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3220,9 +3540,21 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3232,20 +3564,28 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #332, SHEBOYGAN</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3255,9 +3595,21 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3267,7 +3619,11 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3124 S BUSINESS DR</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3275,16 +3631,32 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3294,7 +3666,11 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kS3avMsfVsS2</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3302,16 +3678,32 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3327,7 +3719,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3340,9 +3732,21 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3351,14 +3755,26 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3371,9 +3787,21 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3382,14 +3810,26 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>YAHR OIL CARDINAL SERVICE MOBIL, HARTLAND</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3402,9 +3842,21 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3413,14 +3865,26 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>X-TREME SMOKE #1, JANESVILLE-COURT ST</t>
+          <t>805 CARDINAL LANE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3433,9 +3897,21 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3444,14 +3920,26 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1822 W COURT ST</t>
+          <t>https://goo.gl/maps/aELMdyfpGL62</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3464,9 +3952,21 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3475,14 +3975,26 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AzUabxArRPr</t>
+          <t>APPROX 8:30/9:30 AM START</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3506,14 +4018,26 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3537,14 +4061,26 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3568,14 +4104,26 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Jake K</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>X-TREME SMOKE #2, JANESVILLE-CENTER AVE</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3589,7 +4137,11 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3599,14 +4151,26 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1905 CENTER AVE</t>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3620,7 +4184,11 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3630,16 +4198,24 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/bQYgTdw95yv</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3651,7 +4227,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -3661,17 +4241,37 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -3682,7 +4282,11 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>200 E RYAN ROAD</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3696,10 +4300,14 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3713,7 +4321,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3728,11 +4340,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>X-TREME SMOKE #3, JANESVILLE-MILTON AVE</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -3744,7 +4352,12 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Check in with Pick n Save - 
+Oak Creek after</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3759,11 +4372,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>2811 MILTON AVE</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -3790,11 +4399,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/vT34ZiYMHs42</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -3805,230 +4410,23 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Jan 28</t>
+          <t>Sun, Feb 4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Jan 29</t>
+          <t>Mon, Feb 5</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Jan 30</t>
+          <t>Tue, Feb 6</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Jan 31</t>
+          <t>Wed, Feb 7</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Feb 1</t>
+          <t>Thu, Feb 8</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Feb 2</t>
+          <t>Fri, Feb 9</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Feb 3</t>
+          <t>Sat, Feb 10</t>
         </is>
       </c>
     </row>
@@ -659,28 +659,44 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -693,7 +709,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE LEAVE TIME</t>
+          <t>11:30 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -701,7 +717,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -709,7 +725,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -717,7 +733,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -725,7 +741,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -740,7 +756,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PAID SUPV LUNCH</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -748,7 +764,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -756,7 +772,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -764,7 +780,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #384 +RX, MUKWONAGO</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -772,7 +788,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #382 +RX, NEW BERLIN-NATIONAL AVE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -787,7 +803,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>BB JACK'S, COTTAGE GROVE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -795,7 +811,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>METRO #413 +RX, OCONOMOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -803,7 +819,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #888 +RX, WATERTOWN</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -811,7 +827,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>METRO #893 +RX, SHOREWOOD</t>
+          <t>1010 ROCHESTER STREET</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -819,7 +835,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PICK #387 +RX, OAK CREEK-RYAN RD</t>
+          <t>15445 W NATIONAL AVENUE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -834,7 +850,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>1609 LANDMARK DR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -842,7 +858,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>36903 E WISCONSIN AVE</t>
+          <t>PICK #886 +RX, GRAFTON</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -850,7 +866,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>624 SOUTH CHURCH STREET</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -858,7 +874,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>4075 N OAKLAND AVE</t>
+          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -866,7 +882,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2320 W RYAN ROAD</t>
+          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -881,7 +897,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>https://maps.app.goo.gl/Z3vcisiT9aUBaNbp7</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -889,7 +905,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Uwk2eGLNZaB2</t>
+          <t>301 FALLS ROAD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -897,7 +913,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -905,7 +921,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -913,7 +929,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GGpTSE57XBK2</t>
+          <t>SET UP ON REG #4</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -928,15 +944,20 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>https://bbjackscottagegrove.com/wp-content/uploads/2023/12/BBJacks_CG_menu_11x17-2.pdf</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>&lt;&lt; BB Jack's 
+&lt;&lt; Menu</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/fn4iD1j5W632</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -944,23 +965,19 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>SET UP ON 2ND LEVEL REG #12</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>FROZEN RESET-</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -973,24 +990,36 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1 &amp; 2</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1003,29 +1032,25 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Let Jake know if you are NOT planning to use the meet</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1034,7 +1059,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1045,17 +1070,17 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Until 12:45</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1082,30 +1107,21 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1119,26 +1135,22 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store
+Until noon</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Until 12:45</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1163,27 +1175,31 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1201,15 +1217,21 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Help Kim
+(PC box),
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1230,27 +1252,32 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store,
+Until 12:00</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1268,15 +1295,19 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1285,10 +1316,15 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Help Kim
+(PC box)</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1297,21 +1333,34 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>@ Store,
+after Aurora</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1320,29 +1369,29 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>Driver,
-Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PC Box</t>
+          <t>Until noon</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1353,12 +1402,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>PC Box</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1371,35 +1420,27 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+          <t>Heidi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1408,26 +1449,26 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1436,10 +1477,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1450,33 +1495,35 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 
+Red Van</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1487,28 +1534,26 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
@@ -1517,10 +1562,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1529,23 +1578,33 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Jake S</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van,
+Rx</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1556,28 +1615,28 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1588,14 +1647,10 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1604,23 +1659,31 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bella</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1631,22 +1694,30 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Marty</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1655,15 +1726,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1672,27 +1738,32 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6:30 AM MEET OFFICE</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+after Aurora</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1703,22 +1774,30 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1727,14 +1806,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Bella</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1743,27 +1818,32 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+after Aurora</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1774,19 +1854,23 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1802,7 +1886,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1818,27 +1902,31 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until Noon</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1849,19 +1937,23 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1877,7 +1969,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1893,29 +1985,33 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No meet</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -1924,7 +2020,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1935,12 +2031,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -1956,7 +2052,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -1972,29 +2068,29 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2003,7 +2099,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2014,12 +2110,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2051,22 +2147,26 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2082,30 +2182,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store
+Rx</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2114,7 +2203,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2130,57 +2219,29 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2189,7 +2250,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2207,57 +2268,31 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Driver,
-Prius, 
-Equip</t>
-        </is>
-      </c>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
@@ -2266,7 +2301,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2284,39 +2319,39 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2341,52 +2376,55 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t xml:space="preserve"> 19)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2397,14 +2435,22 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2412,28 +2458,24 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>1220 WEST SUNSET DR</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2444,10 +2486,14 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5:00 AM MEET BAYSHORE</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2455,7 +2501,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PICK #847 +FC-RX, WEST ALLIS-MARKET SQ</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2463,16 +2509,24 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #182, FITCHBURG</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2484,17 +2538,13 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6760 W NATIONAL AVE</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2502,19 +2552,27 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PICK #877, SOUTH MILWAUKEE</t>
+          <t>3010 CAHILL MAIN</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2527,17 +2585,13 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/G4vnZ7jFLF1ooLXD8</t>
+          <t>975 PORT WASHINGTON ROAD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2545,23 +2599,19 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2901 S CHICAGO AVENUE</t>
+          <t>https://goo.gl/maps/W8eb1CgQgVw</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2574,41 +2624,41 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #333, HOWARDS GROVE</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>SET UP ON REG #7</t>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2621,29 +2671,50 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>714 S WISCONSIN DR</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>PICK #472 +RX, FOND DU LAC-PIONEER</t>
+          <t>14555 W NATIONAL AVE  SUITE 100</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2656,11 +2727,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/P6vRkphRvWjMgYEv6</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2670,39 +2737,45 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Driver,
+Prius, 
+Equip</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>55 W PIONEER RD</t>
+          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2725,41 +2798,46 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Until 12:45</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Until noon</t>
+          <t>Driver,
+Prius</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Cccqh1Wg8xs</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2769,22 +2847,9 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2793,34 +2858,63 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Camry</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2829,70 +2923,41 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>PC Box for Kim
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2901,60 +2966,40 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Carolyn</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2964,72 +3009,49 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Marty</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3038,73 +3060,50 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>PC Box</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3113,42 +3112,22 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Jake K</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3157,20 +3136,24 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Bella</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3180,42 +3163,22 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3224,20 +3187,24 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Carolyn</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3251,31 +3218,18 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Bella</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3284,25 +3238,25 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3315,30 +3269,18 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3347,25 +3289,25 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Alyssa R</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3375,37 +3317,21 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3414,25 +3340,25 @@
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3442,37 +3368,21 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3481,25 +3391,25 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3509,52 +3419,36 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL     </t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3564,28 +3458,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #332, SHEBOYGAN</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3595,21 +3473,9 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3619,11 +3485,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3124 S BUSINESS DR</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3631,32 +3493,20 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3666,11 +3516,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kS3avMsfVsS2</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -3678,32 +3524,20 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3717,11 +3551,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3729,24 +3559,16 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3755,28 +3577,12 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3784,24 +3590,16 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3810,28 +3608,12 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>YAHR OIL CARDINAL SERVICE MOBIL, HARTLAND</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3839,24 +3621,16 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3865,28 +3639,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>805 CARDINAL LANE</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3897,21 +3655,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3920,513 +3666,39 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aELMdyfpGL62</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">@ Store  </t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>APPROX 8:30/9:30 AM START</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Jake K</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>N6485 COUNTY RD F</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>200 E RYAN ROAD</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Check in with Pick n Save - 
-Oak Creek after</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Feb 4</t>
+          <t>Sun, Feb 18</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Feb 5</t>
+          <t>Mon, Feb 19</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Feb 6</t>
+          <t>Tue, Feb 20</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Feb 7</t>
+          <t>Wed, Feb 21</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Feb 8</t>
+          <t>Thu, Feb 22</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Feb 9</t>
+          <t>Fri, Feb 23</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Feb 10</t>
+          <t>Sat, Feb 24</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>*Reminder - Paid All Employee Meeting at 3:00 PM today!</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -659,10 +663,14 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10:30 AM OFFICE LEAVE TIME</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -670,7 +678,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -678,7 +686,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -694,7 +702,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -706,10 +714,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11:30 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -717,7 +729,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -725,7 +737,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +753,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -756,7 +768,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PAID SUPV LUNCH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -764,7 +776,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #360 +RX, FRANKLIN-76TH ST</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -772,7 +784,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #867 +RX, BROWN DEER</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -780,7 +792,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #384 +RX, MUKWONAGO</t>
+          <t>PICK #410, WATERFORD</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -788,7 +800,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #382 +RX, NEW BERLIN-NATIONAL AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -803,7 +815,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BB JACK'S, COTTAGE GROVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -811,7 +823,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7201 S 76TH ST</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -819,7 +831,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>PICK #888 +RX, WATERTOWN</t>
+          <t>9200 N GREEN BAY RD</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -827,7 +839,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1010 ROCHESTER STREET</t>
+          <t>515 N MILWAUKEE STREET</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -835,7 +847,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>15445 W NATIONAL AVENUE</t>
+          <t>PICK #414 +RX, BURLINGTON</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -850,7 +862,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1609 LANDMARK DR</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -858,7 +870,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>PICK #886 +RX, GRAFTON</t>
+          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -866,7 +878,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>624 SOUTH CHURCH STREET</t>
+          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -874,7 +886,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
+          <t>https://goo.gl/maps/NZEymR8vwMs</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -882,7 +894,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
+          <t>1008 MILWAUKEE AVENUE</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -897,23 +909,19 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Z3vcisiT9aUBaNbp7</t>
+          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>301 FALLS ROAD</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -921,7 +929,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -929,7 +937,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #4</t>
+          <t>https://goo.gl/maps/q6ioBJfYhYx</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -944,30 +952,29 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://bbjackscottagegrove.com/wp-content/uploads/2023/12/BBJacks_CG_menu_11x17-2.pdf</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>&lt;&lt; BB Jack's 
-&lt;&lt; Menu</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fn4iD1j5W632</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -977,7 +984,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>FROZEN RESET-</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -990,20 +997,44 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 &amp; 2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>(stools)</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1012,12 +1043,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1032,41 +1063,37 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Let Jake know if you are NOT planning to use the meet</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1075,12 +1102,13 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Until 12:45</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1091,12 +1119,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1107,36 +1135,43 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>@ Store
-Until noon</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -1147,10 +1182,14 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1164,7 +1203,8 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Until 12:45</t>
+          <t>@ Store,
+Until 12:00</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1175,45 +1215,41 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1222,14 +1258,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Help Kim
-(PC box),
-Supv Rx</t>
+          <t>Red Van available</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1240,10 +1274,14 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1252,43 +1290,38 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:00</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1300,12 +1333,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1316,13 +1349,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Help Kim
-(PC box)</t>
+          <t>@ Store, After Rote</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1333,51 +1365,41 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>@ Store,
-after Aurora</t>
+          <t>Until noon</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1386,12 +1408,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Until noon</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1402,12 +1424,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>@ Store, After Rote</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1418,45 +1440,37 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1465,10 +1479,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1477,12 +1495,13 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Driver,
+Prius</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1493,48 +1512,34 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver, 
-Red Van</t>
-        </is>
-      </c>
+          <t>300 PELLER RD</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1546,7 +1551,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1567,7 +1572,9 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver,
+Sante Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1578,44 +1585,34 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1631,7 +1628,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1659,42 +1656,34 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1710,7 +1699,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1740,41 +1729,44 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-after Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1790,7 +1782,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1806,7 +1798,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1820,41 +1812,46 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Driver,
+Prius</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>@ Store,
-after Aurora</t>
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1870,7 +1867,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1886,14 +1883,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1904,40 +1897,28 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Until Noon</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1946,21 +1927,9 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1969,7 +1938,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1985,42 +1954,22 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>No meet</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2029,21 +1978,9 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2052,7 +1989,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2068,38 +2005,26 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2108,21 +2033,13 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -2131,7 +2048,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2147,70 +2064,37 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL   </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store
-Rx</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2219,20 +2103,20 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ROTE OIL #6 HUBERTUS</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2240,24 +2124,16 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>METRO #890 +RX, MEQUON</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2266,49 +2142,45 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1306 HWY 175</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>11558 N PORT WASHINGTON</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>4:45 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2317,14 +2189,10 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>3355 W FOREST HOME AVE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2332,7 +2200,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2340,7 +2208,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2348,26 +2216,18 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/1RSSzAVZ6Qq</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2376,14 +2236,10 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2391,7 +2247,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT OFFICE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2399,7 +2255,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #882 +RX, MILWAUKEE - GARFIELD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2407,26 +2263,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
+          <t>FEW RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2435,22 +2283,14 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL      </t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2458,25 +2298,21 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>1100 E GARFIELD</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1220 WEST SUNSET DR</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2488,20 +2324,24 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2509,25 +2349,33 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PICK #182, FITCHBURG</t>
+          <t>https://goo.gl/maps/f4sxcA1a4UU2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>12617 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2544,7 +2392,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2552,27 +2400,31 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3010 CAHILL MAIN</t>
+          <t>SET UP ON REG #7</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2591,27 +2443,31 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/W8eb1CgQgVw</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2624,24 +2480,40 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -2651,14 +2523,14 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2671,50 +2543,53 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>**7:00 AM START</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>14555 W NATIONAL AVE  SUITE 100</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2727,55 +2602,53 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Driver,
-Prius, 
-Equip</t>
-        </is>
-      </c>
+          <t>ROTE OIL #8 ELM GROVE</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Until noon</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2788,56 +2661,59 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BUTERA MARKET #540, GENOA</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>13395 WATERTOWN PLANK RD</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Driver,
-Prius</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Xzs9P5H29WqU4pVc8</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2848,73 +2724,56 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>600 PEARSON DRIVE</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Train w/ Lashaun</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver,
-Camry</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2924,40 +2783,69 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/aAXaCYKgtmr</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2971,36 +2859,61 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3009,34 +2922,54 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ROTE OIL #09 GREENFIELD</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3046,11 +2979,7 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3060,49 +2989,60 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3112,22 +3052,34 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3138,12 +3090,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Bella</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3153,7 +3105,11 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3163,8 +3119,16 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3173,12 +3137,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3189,12 +3153,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3204,7 +3168,11 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3214,22 +3182,42 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Bella</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3240,12 +3228,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3265,22 +3253,38 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Carolyn</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3289,21 +3293,9 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3316,9 +3308,22 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3326,35 +3331,24 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3367,9 +3361,21 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3377,12 +3383,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3391,21 +3397,13 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3418,32 +3416,40 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3462,7 +3468,11 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3470,7 +3480,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1068, WATERFORD</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3489,17 +3503,25 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5:30 AM START </t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>818 FORREST LANE, SUITE 101</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3516,21 +3538,33 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3:00 PM Start</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>9200 W LOOMIS RD SUITE 210</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/KfZH7ApZt9bG9mzb6</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3547,23 +3581,31 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PAID MANDATORY ALL EMPLOYEE MEETING</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3578,7 +3620,11 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3586,16 +3632,28 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1060 N ROCHESTER ST</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3609,23 +3667,39 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3640,7 +3714,11 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3648,7 +3726,11 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
@@ -3667,7 +3749,11 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Please have your camera on for this virtual meeting</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3675,24 +3761,20 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -3700,6 +3782,1085 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>909 GREENWALD CT</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1097, MEQUON</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>12203 CORPORATE PKWY, SUITE 100</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Vqume327kHc7sWLA9</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Heidi</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Jake S</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>25406 75TH ST</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>205 VALLEY AVE</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>25555 75TH ST</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -3716,7 +3716,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>https://meet.google.com/yfj-fori-yho?authuser=1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Feb 25</t>
+          <t>Sun, Mar 3</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Feb 26</t>
+          <t>Mon, Mar 4</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Feb 27</t>
+          <t>Tue, Mar 5</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Feb 28</t>
+          <t>Wed, Mar 6</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Feb 29</t>
+          <t>Thu, Mar 7</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Mar 1</t>
+          <t>Fri, Mar 8</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Mar 2</t>
+          <t>Sat, Mar 9</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -666,7 +670,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET AT THE OFFICE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -674,7 +678,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:30 AM COURTESY MEET AT THE OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -682,7 +686,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -690,7 +694,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -698,7 +702,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:15 AM OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -707,13 +711,17 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,7 +729,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -729,7 +737,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -737,7 +745,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -745,7 +753,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -754,13 +762,17 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>FESTIVAL #2738, HALES CORNERS - (LIFO)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -768,7 +780,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>PICK #372, MILWAUKEE - BLUEMOUND</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +788,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1105, BROOKFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +796,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1135 OCONOMOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,7 +804,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>PICK #386 +RX, WALES</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -801,13 +813,17 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #210, MILTON</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>5600 S 108TH ST</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,7 +831,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>8151 W BLUEMOUND ROAD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,8 +839,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>16985 W BLUEMOUND - 
-SUITE 100</t>
+          <t>MARIANO'S #504, CHICAGO - WESTERN &amp; ROSCOE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -832,7 +847,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1284 SUMMIT AVENUE SUITE 100</t>
+          <t>MARIANO'S #527 +RX, CHICAGO-UKRAINIAN VILLAGE</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -840,7 +855,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>405 N WALES ROAD</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -849,13 +864,17 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>727 S JANESVILLE ST</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -863,7 +882,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>https://goo.gl/maps/QEWZBbHDpV42</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -871,7 +890,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jH8mU5GKz9qMkuhD8</t>
+          <t>3350 NORTH WESTERN AVENUE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -879,7 +898,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wL6wpeCnhYBhsPmP7</t>
+          <t>2021 W CHICAGO AVE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -887,7 +906,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>WATERTOWN ON THE GO</t>
+          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -896,37 +915,45 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nWMvQurCakN2</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Xmc51Y6udXw</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/FiXNTFoTucA2</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1429 E MAIN ST</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -938,69 +965,69 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>DELI RESET-REMAPPED</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/SpZTxWFPUSbG7vqc8</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1012,63 +1039,79 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Driver,
-Camry, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Until 9:30</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Check in with Madison stores after finishing</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1080,110 +1123,206 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla, Equip</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1191,52 +1330,110 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1246,48 +1443,84 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>METRO #388 +RX, OCONOMOWOC-PABST FARMS</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>PICK #407 +RX, WEST MILWAUKEE</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1295,84 +1528,148 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Driver,
-Corolla</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>METRO #380 +RX, SUSSEX</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1300 PABST FARMS CIRCLE</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2201 MILLER PARKWAY</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N65 W24838 MAIN ST</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Arkaya</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Y3h3MKExFnS2</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Wj6P3UJePS32</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1380,45 +1677,95 @@
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9vhkJiNzSVT2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>SET UP ON REG #2</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>SET UP ON REG #7</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1427,37 +1774,73 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6:30 AM MEET OFFICE</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>PICK #394, McFARLAND</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1466,13 +1849,21 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1480,40 +1871,40 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>5709 HWY 51</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1525,58 +1916,62 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TtWaYvRLFUy</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1589,51 +1984,47 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1644,68 +2035,48 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>141 MAIN ST</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>After c-store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1717,70 +2088,42 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>**7:00 AM START</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>After c-store</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1792,65 +2135,41 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>MARIANO'S #507 +RX, CHICAGO-N ELSTON</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -1864,65 +2183,33 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>5353 NORTH ELSTON</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -1935,65 +2222,33 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>RON'S MARKET, HELENVILLE</t>
+          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/wZJz34jYPVB2</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2006,63 +2261,35 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>W3094 HWY 18</t>
+          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2075,68 +2302,32 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/pyYX7wkpwom</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2145,66 +2336,57 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2213,82 +2395,42 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2297,77 +2439,49 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Camry available, Equip</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2382,55 +2496,43 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ENTER THROUGH THE EMERG ROOM - THEY WILL MEET YOU IN HALL BY RX DOOR.  CARRIE WILL BE THERE BY 5:50 AM</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2445,35 +2547,19 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -2491,21 +2577,17 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET BAYSHORE </t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2519,16 +2601,24 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2538,21 +2628,17 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2562,21 +2648,25 @@
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2589,41 +2679,46 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2636,32 +2731,31 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #331, SHEBOYGAN</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>METRO #128, MIDDLETON</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2669,11 +2763,7 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2684,21 +2774,17 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2905 NORTH 15TH ST</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2708,23 +2794,19 @@
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>6800 CENTURY AVENUE</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2713, MADISON - (LIFO)</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2735,35 +2817,39 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kL2YHbXaKw32</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iCDNmqxp1Do</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>810 E WASHINGTON AVE</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2777,28 +2863,32 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>METRO #434 +RX, COTTAGE GROVE</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/LTUs2YEH41J2</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2808,41 +2898,44 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>6010 COTTAGE GROVE RD</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -2856,57 +2949,49 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/c4ML69v6ZS32</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2915,50 +3000,49 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>PICK #868, MILWAUKEE - 
-EAST POINTE</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -2967,56 +3051,48 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>605 EAST LYON STREET</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3026,61 +3102,37 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Liz</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store,
+After KW</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3090,58 +3142,38 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store,
+After KW</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3150,64 +3182,40 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3217,70 +3225,41 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3289,64 +3268,40 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3356,64 +3311,40 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>FESTIVAL #2717, FOND DU LAC - (LIFO)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Palmer</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3427,57 +3358,38 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+          <t>1125 E JOHNSON ST</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>@ Store,
+After KW</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3490,53 +3402,38 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store,
+After KW</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3546,60 +3443,36 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3609,26 +3482,22 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL         </t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3636,37 +3505,13 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3676,26 +3521,23 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2728, SALEM - (LIFO)</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3703,37 +3545,13 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3743,64 +3561,32 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>25300 75TH ST</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3810,21 +3596,17 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fj81W3aDTcG2</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3837,21 +3619,9 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3868,29 +3638,29 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Alyssa R</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3903,45 +3673,33 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11:15</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3954,29 +3712,25 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11:15</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3997,29 +3751,25 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4040,25 +3790,25 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4079,25 +3829,25 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -4118,25 +3868,25 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4157,25 +3907,25 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Liz</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>@ Store, Until 11:15</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -4191,6 +3941,45 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store, 1st Festival, work w/ Marcia</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Mar 3</t>
+          <t>Sun, Mar 10</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Mar 4</t>
+          <t>Mon, Mar 11</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Mar 5</t>
+          <t>Tue, Mar 12</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Mar 6</t>
+          <t>Wed, Mar 13</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Mar 7</t>
+          <t>Thu, Mar 14</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Mar 8</t>
+          <t>Fri, Mar 15</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Mar 9</t>
+          <t>Sat, Mar 16</t>
         </is>
       </c>
     </row>
@@ -656,11 +656,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -678,7 +674,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -686,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -694,7 +690,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -702,7 +698,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -711,11 +707,7 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -729,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -745,7 +737,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -753,7 +745,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -762,17 +754,13 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2738, HALES CORNERS - (LIFO)</t>
+          <t>FESTIVAL #2697, WEST ALLIS - (LIFO)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -780,7 +768,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #372, MILWAUKEE - BLUEMOUND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -796,7 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -804,7 +792,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #386 +RX, WALES</t>
+          <t>FESTIVAL #2698, GREENFIELD - (LIFO)</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -813,17 +801,13 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #210, MILTON</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5600 S 108TH ST</t>
+          <t>11111 W GREENFIELD AVE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -831,7 +815,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8151 W BLUEMOUND ROAD</t>
+          <t>MARIANO'S #516 +RX, CHICAGO - BUCKTOWN</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -839,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #504, CHICAGO - WESTERN &amp; ROSCOE</t>
+          <t>MARIANO'S #529 +RX, WESTERN SPRINGS</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -847,7 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>MARIANO'S #527 +RX, CHICAGO-UKRAINIAN VILLAGE</t>
+          <t>12735 W CAPITOL DR</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -855,7 +839,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>405 N WALES ROAD</t>
+          <t>4777 S 27TH ST</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -864,17 +848,13 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>727 S JANESVILLE ST</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
+          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -882,7 +862,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QEWZBbHDpV42</t>
+          <t>2112 N ASHLAND AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3350 NORTH WESTERN AVENUE</t>
+          <t>4700 GILBERT AVE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -898,7 +878,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2021 W CHICAGO AVE</t>
+          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -906,7 +886,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
+          <t>https://goo.gl/maps/sbGXmfYiSWnd2N1U6</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -915,11 +895,7 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/nWMvQurCakN2</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -929,7 +905,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/As5rMPShhSw</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -937,7 +913,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Xmc51Y6udXw</t>
+          <t>https://goo.gl/maps/i3hEg5MbCYQ2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -945,17 +921,13 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FiXNTFoTucA2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -977,48 +949,52 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>DELI RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
@@ -1032,77 +1008,56 @@
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>***Ian, Katherine, Sue to start at Mariano's***</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>@ Store, Equip</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1116,76 +1071,55 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -1202,69 +1136,67 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Rx</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1277,52 +1209,61 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1330,16 +1271,8 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1349,69 +1282,63 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>w/ Ian</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1419,16 +1346,8 @@
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1438,63 +1357,65 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1502,21 +1423,9 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
@@ -1525,90 +1434,73 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1617,59 +1509,59 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Arkaya</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Arkaya</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1677,21 +1569,9 @@
       <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1700,30 +1580,26 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1735,37 +1611,24 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Rx</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1774,37 +1637,29 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Ian</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1816,31 +1671,23 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1849,34 +1696,34 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1887,24 +1734,24 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>4:30 AM MEET S RACINE CT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1916,29 +1763,33 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1948,30 +1799,32 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1984,45 +1837,66 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>13)</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2035,45 +1909,65 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>14)</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2088,18 +1982,26 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>**7:00 AM START</t>
+          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2109,21 +2011,13 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>703 N ELIDA STREET</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2135,18 +2029,26 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>4400 67TH AVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>MARIANO'S #507 +RX, CHICAGO-N ELSTON</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2156,22 +2058,13 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2183,29 +2076,41 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
+          <t>https://goo.gl/maps/KBLV72sfrbE2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5353 NORTH ELSTON</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2220,36 +2125,56 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wZJz34jYPVB2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2258,41 +2183,58 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Help drive if needed,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2301,9 +2243,22 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2312,22 +2267,34 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>PICK #874 +RX, KENOSHA - HWY 50</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2711, SOMERS - (LIFO)</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2338,55 +2305,57 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+          <t>5710 75TH STREET</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6000 31ST ST</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2395,42 +2364,61 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Xpi4RcchLn92</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2439,49 +2427,57 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>SET UP ON REG CLOSEST TOWARDS CLICKLIST</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2490,49 +2486,67 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>6950 W STATE ST</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ENTER THROUGH THE EMERG ROOM - THEY WILL MEET YOU IN HALL BY RX DOOR.  CARRIE WILL BE THERE BY 5:50 AM</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2545,29 +2559,63 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Arkaya</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2580,43 +2628,56 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DELI RESET-REMAPPED</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2628,48 +2689,56 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2679,49 +2748,68 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2731,40 +2819,70 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>METRO #128, MIDDLETON</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store,
+Ace Side</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2774,40 +2892,72 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2424 S 90TH ST</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>6800 CENTURY AVENUE</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2817,40 +2967,72 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iCDNmqxp1Do</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2865,31 +3047,68 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 11:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Ace Side</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2898,18 +3117,30 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Arkaya</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2920,27 +3151,51 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2955,12 +3210,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2971,27 +3226,52 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3006,12 +3286,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3022,17 +3302,18 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3040,9 +3321,22 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 8:45</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3052,17 +3346,21 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3073,12 +3371,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3091,9 +3389,21 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3103,32 +3413,52 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-After KW</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3143,32 +3473,40 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store,
-After KW</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3183,32 +3521,32 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -3226,32 +3564,24 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1500 ARBOR WAY, SUITE 100</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -3269,32 +3599,24 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3312,32 +3634,28 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Check in with Festival West Allis after</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>FESTIVAL #2717, FOND DU LAC - (LIFO)</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Palmer</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3361,27 +3679,18 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1125 E JOHNSON ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store,
-After KW</t>
-        </is>
-      </c>
+          <t>7540 22ND AVE</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -3398,34 +3707,37 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Camry, Equip</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+          <t>**NEW LOCATION</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store,
-After KW</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -3447,24 +3759,16 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -3485,25 +3789,29 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>836 W WELLINGTON AVE, SUITE 1801</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3524,22 +3832,13 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3564,14 +3863,10 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>*START AT MARIANO'S - Only 10 min away.</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3599,21 +3894,13 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Help Mariano's after too if needed</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3638,21 +3925,9 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Alyssa R</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -3679,17 +3954,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:15</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3718,17 +3993,17 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>@ Store, Until 11:15</t>
+          <t>*Driver</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -3757,19 +4032,15 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3794,21 +4065,9 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3833,21 +4092,9 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -3872,21 +4119,13 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -3911,21 +4150,13 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>@ Store, Until 11:15</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -3950,21 +4181,13 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>@ Store, 1st Festival, work w/ Marcia</t>
-        </is>
-      </c>
+          <t>FESTIVAL #2695, NEW LONDON - (LIFO)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -3980,6 +4203,640 @@
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>308 N SHAWANO ST</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Laurie</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,23 +540,43 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,15 +591,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -602,7 +634,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1545,12 +1581,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Arkaya</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1616,13 +1653,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1676,7 +1712,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1739,7 +1775,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1994,7 +2030,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2041,7 +2077,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2088,7 +2124,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2128,21 +2164,9 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
@@ -2261,7 +2285,11 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2318,7 +2346,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2383,7 +2411,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2446,7 +2474,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
+          <t>6950 W STATE ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2505,7 +2533,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2562,7 +2590,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
+          <t>DELI RESET-REMAPPED</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2596,8 +2624,8 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2608,7 +2636,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Arkaya</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -2629,11 +2657,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>DELI RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2672,7 +2696,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2696,9 +2720,21 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2722,7 +2758,12 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2731,7 +2772,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2757,19 +2798,15 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2802,12 +2839,13 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2828,15 +2866,19 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2874,13 +2916,12 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2901,19 +2942,15 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2950,7 +2987,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -2976,15 +3013,19 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3047,17 +3088,17 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3135,12 +3176,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Arkaya</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3210,12 +3251,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3231,13 +3272,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3286,17 +3326,18 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3307,13 +3348,13 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3355,17 +3396,18 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3376,12 +3418,13 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3422,18 +3465,17 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3444,7 +3486,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3480,26 +3522,25 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3528,21 +3569,9 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3572,15 +3601,15 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3607,13 +3636,17 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3644,7 +3677,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>**NEW LOCATION</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3652,7 +3685,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3679,7 +3712,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3687,7 +3720,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>7540 22ND AVE</t>
+          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3726,7 +3759,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>**NEW LOCATION</t>
+          <t>836 W WELLINGTON AVE, SUITE 1801</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3734,7 +3767,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+          <t>7540 22ND AVE</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3761,13 +3794,17 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
+          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3792,26 +3829,14 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>836 W WELLINGTON AVE, SUITE 1801</t>
+          <t>*START AT MARIANO'S - Only 10 min away.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3835,14 +3860,26 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
+          <t>Help Mariano's after too if needed</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3864,11 +3901,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>*START AT MARIANO'S - Only 10 min away.</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3894,13 +3927,21 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Help Mariano's after too if needed</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -3925,9 +3966,21 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>*Driver</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -3954,19 +4007,15 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3991,21 +4040,9 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>*Driver</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4030,16 +4067,8 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4066,7 +4095,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET AT SLINGER PIGGLY WIGGLY</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4093,7 +4126,11 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4122,7 +4159,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4153,7 +4190,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2695, NEW LONDON - (LIFO)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4184,7 +4221,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>FESTIVAL #2695, NEW LONDON - (LIFO)</t>
+          <t>308 N SHAWANO ST</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4215,7 +4252,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>308 N SHAWANO ST</t>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4246,7 +4283,8 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+          <t>Slinger Pig Address:
+1100 E Commerce Blvd, Slinger</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4352,7 +4390,9 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>Driver, 
+(from Pig)
+Optima</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -4386,12 +4426,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(Camry to Slinger?)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -4425,7 +4465,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Alyssa H</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4464,7 +4504,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Courtney</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4503,7 +4543,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4542,7 +4582,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4581,7 +4621,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Laurie</t>
+          <t>Jerry</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4620,12 +4660,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Katie C</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 2nd Festival, work w/ Marcia</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -4659,7 +4699,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Laurie</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4698,7 +4738,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4721,122 +4761,6 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Mar 10</t>
+          <t>Sun, Mar 17</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Mar 11</t>
+          <t>Mon, Mar 18</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Mar 12</t>
+          <t>Tue, Mar 19</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Mar 13</t>
+          <t>Wed, Mar 20</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Mar 14</t>
+          <t>Thu, Mar 21</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Mar 15</t>
+          <t>Fri, Mar 22</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,9 +472,11 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Mar 16</t>
-        </is>
-      </c>
+          <t>Sat, Mar 23</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -502,6 +504,8 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -529,6 +533,8 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -540,46 +546,28 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kim </t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -591,27 +579,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -623,6 +599,8 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -634,11 +612,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -658,6 +632,8 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -689,6 +665,8 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -702,7 +680,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:45 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -710,7 +688,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4:45 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -718,7 +696,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>4:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -726,7 +704,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:45 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -734,12 +712,18 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -749,7 +733,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -773,7 +757,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -781,12 +765,18 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -796,7 +786,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2697, WEST ALLIS - (LIFO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -820,7 +810,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #853 +RX, BROOKFIELD-127TH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -828,12 +818,18 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>FESTIVAL #2698, GREENFIELD - (LIFO)</t>
+          <t>PICK #397 +RX, BROOKFIELD-GREENFIELD</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -843,7 +839,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11111 W GREENFIELD AVE</t>
+          <t xml:space="preserve">FESTIVAL #2705, KENOSHA - (LIFO) </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -851,7 +847,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #516 +RX, CHICAGO - BUCKTOWN</t>
+          <t>MARIANO'S #540 +RX, BLOOMINGDALE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -859,7 +855,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #529 +RX, WESTERN SPRINGS</t>
+          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -867,7 +863,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12735 W CAPITOL DR</t>
+          <t>FESTIVAL #2704, SHEBOYGAN - (LIFO)</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -875,12 +871,18 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>4777 S 27TH ST</t>
+          <t>15170 W GREENFIELD AVENUE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #213, CAMPBELLSPORT</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -890,7 +892,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
+          <t>3207 80TH ST</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -898,7 +900,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2112 N ASHLAND AVE</t>
+          <t>144 GARY AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -906,7 +908,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4700 GILBERT AVE</t>
+          <t>2559 W 95TH ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -914,7 +916,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FqmpeGmA7cM2</t>
+          <t>595 S TAYLOR DR</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -922,12 +924,18 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sbGXmfYiSWnd2N1U6</t>
+          <t>https://goo.gl/maps/VfL7fqd5WAB2</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>450 GRANDVIEW AVE</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -935,13 +943,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zvVRztkrfs42</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/As5rMPShhSw</t>
+          <t>https://goo.gl/maps/nxd8dWUYoVH2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -949,7 +961,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i3hEg5MbCYQ2</t>
+          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -957,42 +969,40 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/4PUH7pFz6i52</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>SET UP ON REG CLOSEST TO CUBICLES</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MMuxov4fCx22</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1006,26 +1016,20 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET AT GRAFTON PARK N RIDE (CARLIE)</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1034,20 +1038,25 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>***Ian, Katherine, Sue to start at Mariano's***</t>
+          <t>SET UP ON REG  #1 &amp; 2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1056,39 +1065,42 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1097,12 +1109,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1118,7 +1130,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1129,29 +1141,48 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1160,15 +1191,20 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1177,7 +1213,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1193,42 +1229,54 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Rx</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Grafton</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1237,17 +1285,18 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1264,7 +1313,7 @@
       <c r="K18" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+Camry</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1275,36 +1324,52 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry,
+Rx</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1313,7 +1378,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1321,7 +1386,12 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1333,11 +1403,7 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>w/ Ian</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1346,40 +1412,55 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1388,7 +1469,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1405,7 +1486,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1422,41 +1503,46 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1465,7 +1551,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1473,7 +1559,11 @@
           <t>Nick</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1482,14 +1572,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1498,40 +1584,47 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1540,7 +1633,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1569,41 +1662,42 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1612,12 +1706,12 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1641,40 +1735,58 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>9)</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1687,11 +1799,7 @@
           <t>Sue</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>w/ Ian</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1700,32 +1808,42 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>10)</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1743,7 +1861,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1759,40 +1877,42 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Katie C</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>11)</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>4:30 AM MEET S RACINE CT (HWY 43 &amp; Y)</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1800,11 +1920,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1814,12 +1930,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1830,42 +1947,46 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>12)</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1875,7 +1996,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1887,13 +2008,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1904,7 +2024,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1913,31 +2033,17 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1947,7 +2053,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1959,7 +2065,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1975,7 +2081,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1984,31 +2090,17 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>SULLIVAN'S FOODS #295 +ACE, WINNEBAGO</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2018,7 +2110,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2030,32 +2122,47 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>703 N ELIDA STREET</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2065,7 +2172,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4400 67TH AVE</t>
+          <t>AURORA OUTPATIENT RX #1140, BURLINGTON</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2077,7 +2184,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2086,23 +2193,38 @@
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/XJm8iLALryeWSpAZ6</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2112,39 +2234,35 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KBLV72sfrbE2</t>
+          <t>250 MCHENRY ST</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Taylor</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6:00 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2154,6 +2272,8 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2161,7 +2281,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BhwydvAxRam</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2169,98 +2293,61 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5700 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Help drive if needed,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2269,25 +2356,24 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2295,7 +2381,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #874 +RX, KENOSHA - HWY 50</t>
+          <t>6:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2303,28 +2389,18 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>FESTIVAL #2711, SOMERS - (LIFO)</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2333,20 +2409,25 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #879 +RX, MILWAUKEE-35TH &amp; NORTH</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2354,7 +2435,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5710 75TH STREET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2362,56 +2443,32 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6000 31ST ST</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
+          <t>2355 N 35TH STREET</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2419,62 +2476,36 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Xpi4RcchLn92</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iRwyhRYcWJk</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>https://goo.gl/maps/6NcR4utzrJq</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2482,32 +2513,34 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SET UP ON REG CLOSEST TOWARDS CLICKLIST</t>
+          <t>LAKE MILLS MARKET - (LIFO)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2516,196 +2549,161 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>4:30 AM MEET WATERTOWN</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>375 W TYRANENA PARK RD</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET AT SLINGER PIGGLY WIGGLY W/ CARLIE</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DELI RESET-REMAPPED</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/cfS4PK9kPnv2ivfa8</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 10:00</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2715,73 +2713,68 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Until 1:00</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>Until 12:00</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2791,65 +2784,59 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>THOMPSON'S COUNTY MARKET, OCONTO - (LIFO)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Until 12:00,
+Rx</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store,
-Ace Side</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2859,30 +2846,26 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1060, WEST ALLIS</t>
+          <t>722 BRAZEAU AVE #41</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2892,40 +2875,30 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -2935,68 +2908,58 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2424 S 90TH ST</t>
+          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3006,35 +2969,35 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sV4GyYybfkL2</t>
+          <t>RESET FROZEN &amp; LIQUOR-REMAPPED</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Until 11:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3045,37 +3008,23 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3088,12 +3037,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3104,12 +3053,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3120,38 +3069,23 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Ace Side</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3165,39 +3099,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3206,57 +3141,47 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Slinger Pig</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3267,12 +3192,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3281,80 +3206,57 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3362,145 +3264,86 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 8:45</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>6:30 AM MEET AT SLINGER PIGGLY WIGGLY</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3508,46 +3351,44 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3555,22 +3396,36 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1312 KAUKAUNA</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3586,24 +3441,34 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1500 ARBOR WAY, SUITE 100</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>FESTIVAL #2707, NEENAH - (LIFO)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3621,34 +3486,40 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PziVgs1f7GUmVioX6</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Katie C</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>647 S GREEN BAY RD</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3660,34 +3531,40 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Check in with Festival West Allis after</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>**NEW LOCATION</t>
+          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3699,30 +3576,41 @@
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1510, CHICAGO</t>
+          <t>Address to Slinger Pig - 
+1100 E Commerce Blvd, Slinger</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1179, KENOSHA</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3734,6 +3622,8 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3742,34 +3632,26 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Camry, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>836 W WELLINGTON AVE, SUITE 1801</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>7540 22ND AVE</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3781,6 +3663,8 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3791,20 +3675,25 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/WtfYT8XRgDrGBKx88</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/66CQ3FRNP6o</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3816,6 +3705,8 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3826,13 +3717,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>*START AT MARIANO'S - Only 10 min away.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3847,6 +3747,8 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3857,29 +3759,25 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Help Mariano's after too if needed</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sante Fe to Slinger</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3890,6 +3788,8 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3900,9 +3800,21 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3917,6 +3829,8 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -3929,17 +3843,17 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Courtney</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3956,6 +3870,8 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3968,17 +3884,17 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>*Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -3995,6 +3911,8 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4007,15 +3925,19 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -4030,6 +3952,8 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4040,9 +3964,21 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Katie C</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4057,6 +3993,8 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4067,9 +4005,21 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Laurie</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4084,6 +4034,8 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4094,13 +4046,21 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT SLINGER PIGGLY WIGGLY</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4115,6 +4075,8 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4125,13 +4087,21 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
@@ -4146,620 +4116,8 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2695, NEW LONDON - (LIFO)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>308 N SHAWANO ST</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Slinger Pig Address:
-1100 E Commerce Blvd, Slinger</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Driver, 
-(from Pig)
-Optima</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>(Camry to Slinger?)</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Courtney</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Katie C</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>@ Store, 2nd Festival, work w/ Marcia</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Laurie</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Mar 17</t>
+          <t>Sun, Mar 24</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Mar 18</t>
+          <t>Mon, Mar 25</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Mar 19</t>
+          <t>Tue, Mar 26</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Mar 20</t>
+          <t>Wed, Mar 27</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Mar 21</t>
+          <t>Thu, Mar 28</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Mar 22</t>
+          <t>Fri, Mar 29</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,11 +472,9 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Mar 23</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
+          <t>Sat, Mar 30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -504,8 +502,6 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -533,8 +529,6 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -566,8 +560,6 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -599,8 +591,6 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -632,8 +622,6 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -665,8 +653,6 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -680,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:45 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -688,7 +674,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -696,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:15 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -704,7 +690,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5:45 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -712,18 +698,12 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -733,7 +713,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -741,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -749,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -757,7 +737,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -765,18 +745,12 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -786,7 +760,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -794,7 +768,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -802,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -810,7 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -818,18 +792,12 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #397 +RX, BROOKFIELD-GREENFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -839,7 +807,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">FESTIVAL #2705, KENOSHA - (LIFO) </t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -847,7 +815,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #540 +RX, BLOOMINGDALE</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -855,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #530 +RX, EVERGREEN PARK</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -863,7 +831,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2704, SHEBOYGAN - (LIFO)</t>
+          <t>2000 E LAYTON AVENUE SUITE 150</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -871,18 +839,12 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>15170 W GREENFIELD AVENUE</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #213, CAMPBELLSPORT</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -892,7 +854,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3207 80TH ST</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -900,7 +862,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>144 GARY AVE</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -908,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2559 W 95TH ST</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -916,7 +878,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>595 S TAYLOR DR</t>
+          <t>https://goo.gl/maps/saDijnsPM7S2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -924,18 +886,12 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/VfL7fqd5WAB2</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>450 GRANDVIEW AVE</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -945,7 +901,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zvVRztkrfs42</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -953,7 +909,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nxd8dWUYoVH2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -961,34 +917,24 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/msSSp4YpWZR2</t>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4PUH7pFz6i52</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>SET UP ON REG CLOSEST TO CUBICLES</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/MMuxov4fCx22</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -996,13 +942,17 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1010,457 +960,268 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>6:00 AM MEET AT GRAFTON PARK N RIDE (CARLIE)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>SET UP ON REG  #1 &amp; 2</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17235 W BLUEMOUND RD</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>OPEN PANTRY #9570, RACINE</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Aaron</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Until 12:00</t>
-        </is>
-      </c>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>259 N FOND DU LAC AVE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Grafton</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry,
-Rx</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>5:00 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1469,80 +1230,66 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1551,299 +1298,179 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Camry</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Courtney</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>25406 75TH ST</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>5:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1851,68 +1478,50 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Katie C</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>AURORA OUTPATIENT RX #1062, WEST ALLIS</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1920,73 +1529,50 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>6609 W GREENFIELD AVE</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1996,54 +1582,40 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5:15 AM MEET AT THE OFFICE</t>
+          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>25555 75TH ST</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dX5u7g5chT1DCwZVA</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2053,45 +1625,29 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>1061 EAST COMMERCE BOULEVARD SUITE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>4310 67TH DRIVE</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2099,8 +1655,6 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2110,59 +1664,48 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2172,59 +1715,48 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1140, BURLINGTON</t>
+          <t>APPROX 8:00/9:00 AM START</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THE STORE.  ALSO SCANNER HOODS.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2234,46 +1766,45 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>250 MCHENRY ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ROTE OIL #6 HUBERTUS</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>PICK #365, MILWAUKEE - MIDTOWN</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2283,34 +1814,49 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BhwydvAxRam</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1306 HWY 175</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Driver,
+Equip</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>5700 WEST CAPITOL DR</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2318,70 +1864,76 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>141 MAIN ST</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/W4WAvaTk74U2</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:15 AM MEET OFFICE</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2389,123 +1941,133 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>4:45 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>SMITH BEER &amp; LIQUOR, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>PICK #879 +RX, MILWAUKEE-35TH &amp; NORTH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1413 E BRADY STREET</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Driver,
+Equip</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2355 N 35TH STREET</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X1WJEhe6hdQ2</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6NcR4utzrJq</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2513,144 +2075,122 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LAKE MILLS MARKET - (LIFO)</t>
+          <t xml:space="preserve">5:30 AM START </t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>SULLIVAN'S FOODS #242, MARENGO</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET WATERTOWN</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>375 W TYRANENA PARK RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>202 LINDOW LANE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET AT SLINGER PIGGLY WIGGLY W/ CARLIE</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cfS4PK9kPnv2ivfa8</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2664,37 +2204,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1060 N ROCHESTER ST</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2702,69 +2234,53 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Until 1:00</t>
-        </is>
-      </c>
+          <t>ROTE OIL #8 ELM GROVE</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2773,8 +2289,6 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2784,59 +2298,52 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>THOMPSON'S COUNTY MARKET, OCONTO - (LIFO)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Until 12:00,
-Rx</t>
-        </is>
-      </c>
+          <t>13395 WATERTOWN PLANK RD</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2846,59 +2353,48 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>722 BRAZEAU AVE #41</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -2908,58 +2404,53 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2969,62 +2460,53 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>RESET FROZEN &amp; LIQUOR-REMAPPED</t>
+          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>909 GREENWALD CT</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>RAPID MART HARTFORD</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3032,182 +2514,141 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #09 GREENFIELD</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>7)</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Slinger Pig</t>
-        </is>
-      </c>
+          <t>ROTE OIL #04 GENOA CITY</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>8)</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3215,135 +2656,152 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Camry, Equip</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">TO FOLLOW   </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6:30 AM MEET AT SLINGER PIGGLY WIGGLY</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
@@ -3351,36 +2809,26 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Courtney</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3388,7 +2836,11 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3396,124 +2848,126 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>300 PELLER RD</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - (LIFO)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>WILLY STREET COOP, MIDDLETON</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Katie C</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>647 S GREEN BAY RD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3523,42 +2977,36 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>6825 UNIVERSITY AVE</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RgXmUUZfEDQ2</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3568,16 +3016,22 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/in4JiZtePA62</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>SULLIVAN'S FOODS #241, LENA</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3586,31 +3040,34 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Address to Slinger Pig - 
-1100 E Commerce Blvd, Slinger</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3618,12 +3075,14 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>201 DODDS DRIVE</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3632,39 +3091,61 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, Camry</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/82qhta5RyXsUSC2u9</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3675,38 +3156,40 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3719,77 +3202,125 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sante Fe to Slinger</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2002 W GALENA AVE</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3797,40 +3328,54 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FULL STORE</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Alyssa H</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -3838,40 +3383,50 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ONEIDA #2022 ONE STOP E &amp; EE, DEPERE</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Courtney</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3879,40 +3434,70 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>790 COUNTY RD EE</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -3920,40 +3505,70 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/VLR8RdvzGgF2</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -3961,40 +3576,66 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Katie C</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4002,40 +3643,62 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Laurie</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4043,28 +3706,33 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ONEIDA #2021 ONE STOP 54, ONEIDA</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Driver, 
+Sante Fe</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -4075,8 +3743,6 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4084,28 +3750,33 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>W180 HWY 54</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
@@ -4116,8 +3787,766 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kMzccLLaPd22</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Optima</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>KELLEY #58, TYLER CREEK MOBIL, HAMPSHIRE</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>15N341 RTE 47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/SW6S8XqhdGcLz6W2A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Week2.xlsx
+++ b/Week2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sun, Mar 24</t>
+          <t>Sun, Mar 31</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
@@ -432,7 +432,7 @@
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Mon, Mar 25</t>
+          <t>Mon, Apr 1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr"/>
@@ -440,7 +440,7 @@
       <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Tue, Mar 26</t>
+          <t>Tue, Apr 2</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
@@ -448,7 +448,7 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wed, Mar 27</t>
+          <t>Wed, Apr 3</t>
         </is>
       </c>
       <c r="N1" t="inlineStr"/>
@@ -456,7 +456,7 @@
       <c r="P1" t="inlineStr"/>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Thu, Mar 28</t>
+          <t>Thu, Apr 4</t>
         </is>
       </c>
       <c r="R1" t="inlineStr"/>
@@ -464,7 +464,7 @@
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Fri, Mar 29</t>
+          <t>Fri, Apr 5</t>
         </is>
       </c>
       <c r="V1" t="inlineStr"/>
@@ -472,7 +472,7 @@
       <c r="X1" t="inlineStr"/>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Sat, Mar 30</t>
+          <t>Sat, Apr 6</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -674,7 +674,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:00 AM MEET AT THE OFFICE</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -690,7 +690,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -698,7 +698,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>5:15 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>4:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -713,7 +713,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -721,7 +721,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -737,7 +737,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -760,7 +760,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -768,7 +768,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -784,7 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1050, ST FRANCIS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -807,7 +807,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>2826 S KINNICKINNC AVE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -815,7 +815,8 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>PICK #856, RACINE-
+MT PLEASANT</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -823,7 +824,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>MARIANO'S #522 +RX, CHICAGO-EDGEWATER</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -831,7 +832,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2000 E LAYTON AVENUE SUITE 150</t>
+          <t>FESTIVAL #2732, APPLETON - NORTHLAND - LIFO</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -839,7 +840,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>PICK #408, TWO RIVERS</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -854,7 +855,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -862,7 +863,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>1202  N GREENBAY RD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -870,7 +871,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>5201 N SHERIDAN RD</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -878,7 +879,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/saDijnsPM7S2</t>
+          <t>1200 W NORTHLAND AVE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -886,7 +887,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>1010 22ND STREET</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -899,17 +900,13 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/gCMavYTDGoo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -917,19 +914,23 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>https://goo.gl/maps/9eaE3Q6o8jF2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/eRWs6b1N24m</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -941,50 +942,42 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DJ and Mai will start here, Aurora is 10 min away, 7:30 Start</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -996,10 +989,14 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1007,39 +1004,47 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>*Kim - Lincoln - Sonia meet at the office @ 4:45 am</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Until 12:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>Ian's car to pick up Carlie on the way north @ Grafton</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1051,40 +1056,53 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>17235 W BLUEMOUND RD</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>12511 ANTIOCH RD</t>
-        </is>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
@@ -1094,41 +1112,80 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Kim G</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>*Driver
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Kim G</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1138,40 +1195,65 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>5:00 AM MEET AT THE OFFICE</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>@ Grafton</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1184,42 +1266,59 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Rx</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1228,34 +1327,33 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1263,31 +1361,36 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Kim G</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>w/ Mai
+Aurora @ 7:30</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1296,54 +1399,75 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Kim C</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3rd scan, work w/ Evelin</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Kim C</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver,
-Camry</t>
+          <t>3rd week</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry
+(Grafton)</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1353,31 +1477,69 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>OUTPOST NATURAL FOODS, MEQUON</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1388,32 +1550,73 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7590 W MEQUON RD</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Early office meet</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Lincoln</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1425,50 +1628,67 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
+          <t>https://goo.gl/maps/do2xmdVUL8z</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>w/ DJ
+Aurora @ 7:30</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1478,45 +1698,61 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Early office meet</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Katie C</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1062, WEST ALLIS</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1528,46 +1764,74 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Laurie</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>6609 W GREENFIELD AVE</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1579,38 +1843,75 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1115 UNION GROVE</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dX5u7g5chT1DCwZVA</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1622,33 +1923,70 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1061 EAST COMMERCE BOULEVARD SUITE</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>@ Store, Trainer</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>4310 67TH DRIVE</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -1661,49 +1999,61 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Ethan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>@ Store, work w/ Alyssa H</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7d8P5BJ5vQyPjos7</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1712,48 +2062,52 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>APPROX 8:00/9:00 AM START</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ Store  </t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>NEED THE 4208 SCANNERS DUE TO THE LIGHTING IN THE STORE.  ALSO SCANNER HOODS.</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>7:30 AM START</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1764,44 +2118,43 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -1812,37 +2165,20 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Driver,
-Equip</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -1851,7 +2187,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>AURORA OUTPATIENT RX #1041, TWO RIVERS</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1866,7 +2202,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1874,21 +2210,13 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>DISCOUNT LIQUOR INC, MILWAUKEE</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -1898,7 +2226,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>5300 MEMORIAL DRIVE, SUITE 103</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -1913,7 +2241,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1921,35 +2249,23 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>5031 W OKLAHOMA AVE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>SMITH BEER &amp; LIQUOR, MILWAUKEE</t>
+          <t>https://goo.gl/maps/7zzPH72TWHs</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -1962,33 +2278,37 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/hfa57ctXcvNrGJ4NA</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Milwaukee Office</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1413 E BRADY STREET</t>
+          <t>Help at Pick n Save after if needed</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2000,49 +2320,32 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver,
-Equip</t>
-        </is>
-      </c>
+          <t>100 E CAPITOL DR</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Kim G</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X1WJEhe6hdQ2</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2052,45 +2355,59 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">5:30 AM START </t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>SULLIVAN'S FOODS #242, MARENGO</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Start at 
+Pick n Save,
+Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2103,43 +2420,44 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>202 LINDOW LANE</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Start at 
+Pick n Save</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2150,44 +2468,48 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2199,30 +2521,30 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1060 N ROCHESTER ST</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2242,50 +2564,34 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2295,50 +2601,34 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>13395 WATERTOWN PLANK RD</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2350,46 +2640,42 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>PICK #366 +RX, HALES CORNERS</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2402,50 +2688,29 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>475 N LAKE AVE</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>5800 S 108TH ST</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2458,50 +2723,29 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/jNgJR8hii6jJGZQP7</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FINANCIAL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>909 GREENWALD CT</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>https://goo.gl/maps/zX1XvNMo8SU2</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2516,7 +2760,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2524,37 +2768,21 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>2712 E SUMNER ST</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2567,7 +2795,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2575,38 +2803,34 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2618,7 +2842,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2626,33 +2850,29 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2665,7 +2885,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2675,11 +2895,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2688,19 +2904,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Camry, Equip</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -2712,7 +2924,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2729,16 +2941,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Driver,
+Camry,
+Equip</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>122 ARROWHEAD DR</t>
-        </is>
-      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -2747,17 +2957,17 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd week</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -2771,7 +2981,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>**Help at Metcalfe after**</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2783,30 +2993,34 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Kim C</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -2816,17 +3030,9 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2836,15 +3042,19 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -2854,49 +3064,49 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -2905,49 +3115,45 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>WILLY STREET COOP, MIDDLETON</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -2956,20 +3162,20 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -2977,20 +3183,24 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>6825 UNIVERSITY AVE</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -2999,16 +3209,20 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3016,20 +3230,24 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/in4JiZtePA62</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #241, LENA</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3040,47 +3258,43 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>N6485 COUNTY RD F</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>201 DODDS DRIVE</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3089,61 +3303,37 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Driver, Camry</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/82qhta5RyXsUSC2u9</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3161,33 +3351,28 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3197,58 +3382,39 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>SULLIVAN'S FOODS #225, FREEPORT</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X60" t="inlineStr"/>
@@ -3259,64 +3425,39 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>2002 W GALENA AVE</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X61" t="inlineStr"/>
@@ -3330,50 +3471,39 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MODAS</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>FULL STORE</t>
-        </is>
-      </c>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3385,7 +3515,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ONEIDA #2022 ONE STOP E &amp; EE, DEPERE</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3398,33 +3528,25 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3436,59 +3558,31 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>790 COUNTY RD EE</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Milwaukee Office</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3505,68 +3599,24 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/VLR8RdvzGgF2</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3575,65 +3625,37 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>Kim G</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -3642,10 +3664,14 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3654,49 +3680,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -3705,41 +3703,40 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ONEIDA #2021 ONE STOP 54, ONEIDA</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1st Financial, work w/ Evelin</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Driver, 
-Sante Fe</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -3749,10 +3746,14 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>W180 HWY 54</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3761,29 +3762,20 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Lincoln</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3793,28 +3785,28 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kMzccLLaPd22</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -3822,7 +3814,11 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #145, KEWASKUM</t>
+        </is>
+      </c>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3832,24 +3828,29 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -3857,7 +3858,11 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>890 FOND DU LAC AVE</t>
+        </is>
+      </c>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3869,17 +3874,17 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jerry</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Until 12:45</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3887,28 +3892,20 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iZr1X51Jf9U2</t>
+        </is>
+      </c>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -3920,17 +3917,17 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katie C</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, work w/ Marcia, Until 12:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -3938,21 +3935,9 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Brittany</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
@@ -3971,17 +3956,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Until 12:45</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3989,29 +3974,29 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -4022,17 +4007,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Heather</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>@ Store, Until 12:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -4048,8 +4033,16 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -4075,9 +4068,21 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Alyssa H</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store, Trainer</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -4102,9 +4107,21 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Katie C</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>@ Store, 1st Pig, work w/ Alyssa H</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
@@ -4114,11 +4131,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -4133,9 +4146,21 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
     </row>
@@ -4145,11 +4170,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -4164,9 +4185,21 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
@@ -4176,11 +4209,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -4195,358 +4224,23 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>@ Store, 2nd Pig, work w/ Marcia</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>KELLEY #58, TYLER CREEK MOBIL, HAMPSHIRE</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>15N341 RTE 47</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/SW6S8XqhdGcLz6W2A</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
